--- a/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9894061273955636</v>
+        <v>0.9804158134198503</v>
       </c>
       <c r="D2">
-        <v>1.010176840895467</v>
+        <v>1.001603210012074</v>
       </c>
       <c r="E2">
-        <v>0.9965333755807444</v>
+        <v>0.9891936966604485</v>
       </c>
       <c r="F2">
-        <v>1.00726209669115</v>
+        <v>0.9562002453650246</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042065970459605</v>
+        <v>1.03391331181238</v>
       </c>
       <c r="J2">
-        <v>1.01190838325592</v>
+        <v>1.003198490060253</v>
       </c>
       <c r="K2">
-        <v>1.021496193733737</v>
+        <v>1.013040254669135</v>
       </c>
       <c r="L2">
-        <v>1.008041218200032</v>
+        <v>1.000805662068159</v>
       </c>
       <c r="M2">
-        <v>1.018621177678019</v>
+        <v>0.9683054948449283</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973339275261913</v>
+        <v>0.9876194866356323</v>
       </c>
       <c r="D3">
-        <v>1.016134700625088</v>
+        <v>1.00698077950624</v>
       </c>
       <c r="E3">
-        <v>1.0031711792719</v>
+        <v>0.995141697080158</v>
       </c>
       <c r="F3">
-        <v>1.014616221834955</v>
+        <v>0.9663255190276757</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044793070464805</v>
+        <v>1.035940261756327</v>
       </c>
       <c r="J3">
-        <v>1.017897537174249</v>
+        <v>1.008453442860649</v>
       </c>
       <c r="K3">
-        <v>1.026565214780702</v>
+        <v>1.017525112408211</v>
       </c>
       <c r="L3">
-        <v>1.013763644436675</v>
+        <v>1.00583712055893</v>
       </c>
       <c r="M3">
-        <v>1.025065439715734</v>
+        <v>0.9774082082972179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002299048640433</v>
+        <v>0.9921300534985654</v>
       </c>
       <c r="D4">
-        <v>1.019868051282337</v>
+        <v>1.010350153132695</v>
       </c>
       <c r="E4">
-        <v>1.007334240288597</v>
+        <v>0.9988724910870111</v>
       </c>
       <c r="F4">
-        <v>1.019228650354103</v>
+        <v>0.9726504134619355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046485481134576</v>
+        <v>1.037196166593336</v>
       </c>
       <c r="J4">
-        <v>1.021644126794361</v>
+        <v>1.011737238461738</v>
       </c>
       <c r="K4">
-        <v>1.029732457281525</v>
+        <v>1.020325245503055</v>
       </c>
       <c r="L4">
-        <v>1.017344946140846</v>
+        <v>1.00898454322329</v>
       </c>
       <c r="M4">
-        <v>1.029100412131788</v>
+        <v>0.9830905299425605</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004349316079149</v>
+        <v>0.9939923948165752</v>
       </c>
       <c r="D5">
-        <v>1.02141002119049</v>
+        <v>1.011741729263289</v>
       </c>
       <c r="E5">
-        <v>1.009054605630846</v>
+        <v>1.000414336838489</v>
       </c>
       <c r="F5">
-        <v>1.021134755015753</v>
+        <v>0.9752588780213509</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047180525076875</v>
+        <v>1.037711468876265</v>
       </c>
       <c r="J5">
-        <v>1.023190093607628</v>
+        <v>1.013091457390469</v>
       </c>
       <c r="K5">
-        <v>1.031038435566725</v>
+        <v>1.021479378511213</v>
       </c>
       <c r="L5">
-        <v>1.018823073643418</v>
+        <v>1.010283289020346</v>
       </c>
       <c r="M5">
-        <v>1.030766244205795</v>
+        <v>0.9854330109029494</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00469145584187</v>
+        <v>0.9943031615484931</v>
       </c>
       <c r="D6">
-        <v>1.021667354866038</v>
+        <v>1.011973961127958</v>
       </c>
       <c r="E6">
-        <v>1.009341765972275</v>
+        <v>1.000671706221365</v>
       </c>
       <c r="F6">
-        <v>1.021452921400792</v>
+        <v>0.9756939907831789</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047296284685683</v>
+        <v>1.037797264491131</v>
       </c>
       <c r="J6">
-        <v>1.023448009361531</v>
+        <v>1.013317338910762</v>
       </c>
       <c r="K6">
-        <v>1.03125625805658</v>
+        <v>1.021671848000747</v>
       </c>
       <c r="L6">
-        <v>1.019069692756995</v>
+        <v>1.010499962185641</v>
       </c>
       <c r="M6">
-        <v>1.031044207961494</v>
+        <v>0.9858236961960718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002326587112631</v>
+        <v>0.9921550686803586</v>
       </c>
       <c r="D7">
-        <v>1.019888761295586</v>
+        <v>1.010368843446752</v>
       </c>
       <c r="E7">
-        <v>1.007357342637992</v>
+        <v>0.998893195668124</v>
       </c>
       <c r="F7">
-        <v>1.01925424677205</v>
+        <v>0.9726854617001018</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046494831909344</v>
+        <v>1.037203101102053</v>
       </c>
       <c r="J7">
-        <v>1.021664896242385</v>
+        <v>1.011755434891348</v>
       </c>
       <c r="K7">
-        <v>1.0297500063072</v>
+        <v>1.020340755944441</v>
       </c>
       <c r="L7">
-        <v>1.01736480276802</v>
+        <v>1.009001991260795</v>
       </c>
       <c r="M7">
-        <v>1.029122788498094</v>
+        <v>0.9831220082880417</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9921209568323056</v>
+        <v>0.9828829078755679</v>
       </c>
       <c r="D8">
-        <v>1.012216568861497</v>
+        <v>1.003444361682236</v>
       </c>
       <c r="E8">
-        <v>0.9988051451223172</v>
+        <v>0.9912293265698533</v>
       </c>
       <c r="F8">
-        <v>1.009779011269632</v>
+        <v>0.9596715061009482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043003088144606</v>
+        <v>1.0346102650678</v>
       </c>
       <c r="J8">
-        <v>1.013960208558064</v>
+        <v>1.004999566735291</v>
       </c>
       <c r="K8">
-        <v>1.023233563160524</v>
+        <v>1.014577878167239</v>
       </c>
       <c r="L8">
-        <v>1.010001325839009</v>
+        <v>1.002529427657342</v>
       </c>
       <c r="M8">
-        <v>1.020828129110438</v>
+        <v>0.9714269569394574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972757036226625</v>
+        <v>0.965279710402313</v>
       </c>
       <c r="D9">
-        <v>0.9976828429749985</v>
+        <v>0.9903224346000611</v>
       </c>
       <c r="E9">
-        <v>0.9826320192486402</v>
+        <v>0.9767370677531194</v>
       </c>
       <c r="F9">
-        <v>0.9918604723020584</v>
+        <v>0.9348072872354179</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036254899090085</v>
+        <v>1.02958219135229</v>
       </c>
       <c r="J9">
-        <v>0.999309902469501</v>
+        <v>0.9921210565864788</v>
       </c>
       <c r="K9">
-        <v>1.010813626639758</v>
+        <v>1.003574499516449</v>
       </c>
       <c r="L9">
-        <v>0.9960133084947623</v>
+        <v>0.9902191932426172</v>
       </c>
       <c r="M9">
-        <v>1.005087002668765</v>
+        <v>0.949054727876667</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9587293258783022</v>
+        <v>0.9525157841687723</v>
       </c>
       <c r="D10">
-        <v>0.9871815299496929</v>
+        <v>0.9808340090419781</v>
       </c>
       <c r="E10">
-        <v>0.9709618547402579</v>
+        <v>0.9662758800201453</v>
       </c>
       <c r="F10">
-        <v>0.9789297957911512</v>
+        <v>0.916611981828904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031288383989543</v>
+        <v>1.025868397394915</v>
       </c>
       <c r="J10">
-        <v>0.9886817786619285</v>
+        <v>0.9827488080733587</v>
       </c>
       <c r="K10">
-        <v>1.001786148112313</v>
+        <v>0.995558154063906</v>
       </c>
       <c r="L10">
-        <v>0.9858759704604348</v>
+        <v>0.981281952934314</v>
       </c>
       <c r="M10">
-        <v>0.9936901935315211</v>
+        <v>0.9326698451915059</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9523387200748976</v>
+        <v>0.9466963001197302</v>
       </c>
       <c r="D11">
-        <v>0.9824069117833824</v>
+        <v>0.976516631343764</v>
       </c>
       <c r="E11">
-        <v>0.965658720611869</v>
+        <v>0.9615194495477196</v>
       </c>
       <c r="F11">
-        <v>0.9730533110116026</v>
+        <v>0.9082596583772955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029008837840777</v>
+        <v>1.024160025533849</v>
       </c>
       <c r="J11">
-        <v>0.983838060938808</v>
+        <v>0.9784679272094361</v>
       </c>
       <c r="K11">
-        <v>0.9976684134919366</v>
+        <v>0.9918954268363729</v>
       </c>
       <c r="L11">
-        <v>0.9812586829004307</v>
+        <v>0.9772054642105198</v>
       </c>
       <c r="M11">
-        <v>0.9885019453302697</v>
+        <v>0.9251471422270268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9499122444258846</v>
+        <v>0.9444857397905281</v>
       </c>
       <c r="D12">
-        <v>0.980595732043698</v>
+        <v>0.974878199990366</v>
       </c>
       <c r="E12">
-        <v>0.9636474181439917</v>
+        <v>0.9597148645110605</v>
       </c>
       <c r="F12">
-        <v>0.9708244442402092</v>
+        <v>0.9050767033795799</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02814091512085</v>
+        <v>1.023508914099096</v>
       </c>
       <c r="J12">
-        <v>0.9819988198169519</v>
+        <v>0.9768406704217436</v>
       </c>
       <c r="K12">
-        <v>0.9961043746979839</v>
+        <v>0.9905030567035799</v>
       </c>
       <c r="L12">
-        <v>0.979505865676049</v>
+        <v>0.975656818673032</v>
       </c>
       <c r="M12">
-        <v>0.9865327925338518</v>
+        <v>0.9222803098393473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9504352090653133</v>
+        <v>0.9449622165373862</v>
       </c>
       <c r="D13">
-        <v>0.98098600296817</v>
+        <v>0.9752312829311617</v>
       </c>
       <c r="E13">
-        <v>0.9640807962937726</v>
+        <v>0.9601037338892348</v>
       </c>
       <c r="F13">
-        <v>0.9713047067944618</v>
+        <v>0.9057632720314432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0283280788585</v>
+        <v>1.023649354965193</v>
       </c>
       <c r="J13">
-        <v>0.9823952230901104</v>
+        <v>0.9771914698000279</v>
       </c>
       <c r="K13">
-        <v>0.9964414848219364</v>
+        <v>0.99080322226332</v>
       </c>
       <c r="L13">
-        <v>0.9798836218120854</v>
+        <v>0.9759906287960133</v>
       </c>
       <c r="M13">
-        <v>0.9869571531817335</v>
+        <v>0.9228986885907813</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9521392550312945</v>
+        <v>0.9465146047784773</v>
       </c>
       <c r="D14">
-        <v>0.9822579897306415</v>
+        <v>0.9763819289255637</v>
       </c>
       <c r="E14">
-        <v>0.9654933368546834</v>
+        <v>0.9613710779311865</v>
       </c>
       <c r="F14">
-        <v>0.9728700399862277</v>
+        <v>0.9079982576180118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028937538971974</v>
+        <v>1.024106551446778</v>
       </c>
       <c r="J14">
-        <v>0.9836868698581734</v>
+        <v>0.9783341990800701</v>
       </c>
       <c r="K14">
-        <v>0.9975398539187162</v>
+        <v>0.9917810029280854</v>
       </c>
       <c r="L14">
-        <v>0.9811145869257543</v>
+        <v>0.9770781773985815</v>
       </c>
       <c r="M14">
-        <v>0.9883400563797207</v>
+        <v>0.9249117026263689</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.95318202003167</v>
+        <v>0.947464433507594</v>
       </c>
       <c r="D15">
-        <v>0.9830365971007604</v>
+        <v>0.9770861621624655</v>
       </c>
       <c r="E15">
-        <v>0.9663580249663516</v>
+        <v>0.9621467931064812</v>
       </c>
       <c r="F15">
-        <v>0.9738282447193074</v>
+        <v>0.9093643247457113</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029310179650641</v>
+        <v>1.024386004260228</v>
       </c>
       <c r="J15">
-        <v>0.9844772644456325</v>
+        <v>0.9790332286645578</v>
       </c>
       <c r="K15">
-        <v>0.9982119173106916</v>
+        <v>0.9923791216586829</v>
       </c>
       <c r="L15">
-        <v>0.9818679080535535</v>
+        <v>0.9777435742484686</v>
       </c>
       <c r="M15">
-        <v>0.9891864144345568</v>
+        <v>0.9261420978266124</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591463572184179</v>
+        <v>0.952895432200259</v>
       </c>
       <c r="D16">
-        <v>0.9874933259026872</v>
+        <v>0.9811158624366787</v>
       </c>
       <c r="E16">
-        <v>0.9713082183673055</v>
+        <v>0.9665864642350835</v>
       </c>
       <c r="F16">
-        <v>0.9793135929522677</v>
+        <v>0.9171555578221423</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031436802889783</v>
+        <v>1.02597954280562</v>
       </c>
       <c r="J16">
-        <v>0.9889978401293703</v>
+        <v>0.9830279235102535</v>
       </c>
       <c r="K16">
-        <v>1.002054770482938</v>
+        <v>0.9957969486238613</v>
       </c>
       <c r="L16">
-        <v>0.986177316274091</v>
+        <v>0.981547864256451</v>
       </c>
       <c r="M16">
-        <v>0.9940288591570747</v>
+        <v>0.933159413693427</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.962799477474188</v>
+        <v>0.9562205430456349</v>
       </c>
       <c r="D17">
-        <v>0.9902256982691648</v>
+        <v>0.9835854518577385</v>
       </c>
       <c r="E17">
-        <v>0.9743438395549663</v>
+        <v>0.9693081858625668</v>
       </c>
       <c r="F17">
-        <v>0.9826772262203269</v>
+        <v>0.9219098908504593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032735036936816</v>
+        <v>1.026951309349432</v>
       </c>
       <c r="J17">
-        <v>0.9917662909325361</v>
+        <v>0.9854716596145877</v>
       </c>
       <c r="K17">
-        <v>1.004407304700313</v>
+        <v>0.9978875417976131</v>
       </c>
       <c r="L17">
-        <v>0.9888171825361194</v>
+        <v>0.9838766403754662</v>
       </c>
       <c r="M17">
-        <v>0.9969959602762424</v>
+        <v>0.9374412331816424</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9649001290722066</v>
+        <v>0.9581321667485029</v>
       </c>
       <c r="D18">
-        <v>0.99179775788334</v>
+        <v>0.9850060287827042</v>
       </c>
       <c r="E18">
-        <v>0.9760906515428004</v>
+        <v>0.9708741353836574</v>
       </c>
       <c r="F18">
-        <v>0.9846127391904169</v>
+        <v>0.9246380296308061</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033479962846963</v>
+        <v>1.027508561144838</v>
       </c>
       <c r="J18">
-        <v>0.9933580453355891</v>
+        <v>0.9868758481308249</v>
       </c>
       <c r="K18">
-        <v>1.005759590811565</v>
+        <v>0.9990886962176194</v>
       </c>
       <c r="L18">
-        <v>0.990335261441427</v>
+        <v>0.9852152998791888</v>
       </c>
       <c r="M18">
-        <v>0.9987024701521519</v>
+        <v>0.9398980870866399</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9656114272673146</v>
+        <v>0.95877939425817</v>
       </c>
       <c r="D19">
-        <v>0.9923302091455027</v>
+        <v>0.9854871288439577</v>
       </c>
       <c r="E19">
-        <v>0.9766823403750564</v>
+        <v>0.9714045275751134</v>
       </c>
       <c r="F19">
-        <v>0.9852683381302222</v>
+        <v>0.9255608819015135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033731925873074</v>
+        <v>1.027696988638868</v>
       </c>
       <c r="J19">
-        <v>0.9938969904477715</v>
+        <v>0.9873511465668106</v>
       </c>
       <c r="K19">
-        <v>1.006217397417484</v>
+        <v>0.999495248383002</v>
       </c>
       <c r="L19">
-        <v>0.9908493036488729</v>
+        <v>0.9856685055410058</v>
       </c>
       <c r="M19">
-        <v>0.9992803601294672</v>
+        <v>0.940729141755531</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624106858384287</v>
+        <v>0.9558667049242271</v>
       </c>
       <c r="D20">
-        <v>0.9899348074033832</v>
+        <v>0.9833225686425431</v>
       </c>
       <c r="E20">
-        <v>0.9740206360118686</v>
+        <v>0.9690184288532049</v>
       </c>
       <c r="F20">
-        <v>0.982319104483235</v>
+        <v>0.9214045110111964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032597034473637</v>
+        <v>1.026848047092479</v>
       </c>
       <c r="J20">
-        <v>0.9914716704994282</v>
+        <v>0.98521168759691</v>
       </c>
       <c r="K20">
-        <v>1.00415698052074</v>
+        <v>0.9976651496294948</v>
       </c>
       <c r="L20">
-        <v>0.9885362193585433</v>
+        <v>0.9836288428369465</v>
       </c>
       <c r="M20">
-        <v>0.9966801430002432</v>
+        <v>0.9369860950391381</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9516389567867903</v>
+        <v>0.9460588604720626</v>
       </c>
       <c r="D21">
-        <v>0.9818844920341666</v>
+        <v>0.9760440821215955</v>
       </c>
       <c r="E21">
-        <v>0.9650785586086299</v>
+        <v>0.9609989546697718</v>
       </c>
       <c r="F21">
-        <v>0.9724103990336239</v>
+        <v>0.9073424172177283</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028758669262833</v>
+        <v>1.023972388373269</v>
       </c>
       <c r="J21">
-        <v>0.9833076512262396</v>
+        <v>0.9779987520919351</v>
       </c>
       <c r="K21">
-        <v>0.9972173925450412</v>
+        <v>0.9914939780551956</v>
       </c>
       <c r="L21">
-        <v>0.9807531715465836</v>
+        <v>0.976758902932813</v>
       </c>
       <c r="M21">
-        <v>0.9879340200802406</v>
+        <v>0.9243209974987884</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9445581460584294</v>
+        <v>0.939605976868348</v>
       </c>
       <c r="D22">
-        <v>0.9766028321461264</v>
+        <v>0.971264547024136</v>
       </c>
       <c r="E22">
-        <v>0.9592139049803985</v>
+        <v>0.9557355244295328</v>
       </c>
       <c r="F22">
-        <v>0.96591111385783</v>
+        <v>0.8980290686746571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026221583662769</v>
+        <v>1.022067689267508</v>
       </c>
       <c r="J22">
-        <v>0.9779404803541942</v>
+        <v>0.9732464479717589</v>
       </c>
       <c r="K22">
-        <v>0.9926524907280476</v>
+        <v>0.9874275915894113</v>
       </c>
       <c r="L22">
-        <v>0.9756390822174094</v>
+        <v>0.9722380032369025</v>
       </c>
       <c r="M22">
-        <v>0.9821895374712385</v>
+        <v>0.9159327982745648</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9483429742363176</v>
+        <v>0.9430558052185056</v>
       </c>
       <c r="D23">
-        <v>0.9794249145808088</v>
+        <v>0.9738188241149079</v>
       </c>
       <c r="E23">
-        <v>0.9623473250677913</v>
+        <v>0.9585481787923872</v>
       </c>
       <c r="F23">
-        <v>0.9693836837101026</v>
+        <v>0.9030146039595365</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027578951494514</v>
+        <v>1.02308713142377</v>
       </c>
       <c r="J23">
-        <v>0.9808093230826731</v>
+        <v>0.9757877350613946</v>
       </c>
       <c r="K23">
-        <v>0.9950927371395084</v>
+        <v>0.9896020951031198</v>
       </c>
       <c r="L23">
-        <v>0.9783723916174044</v>
+        <v>0.9746550169119477</v>
       </c>
       <c r="M23">
-        <v>0.9852595408054253</v>
+        <v>0.9204230288141437</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9625864568392196</v>
+        <v>0.9560266748615912</v>
       </c>
       <c r="D24">
-        <v>0.9900663152252387</v>
+        <v>0.9834414154776219</v>
       </c>
       <c r="E24">
-        <v>0.9741667510836819</v>
+        <v>0.9691494239988347</v>
       </c>
       <c r="F24">
-        <v>0.9824810056555792</v>
+        <v>0.9216330087341752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032659429760145</v>
+        <v>1.026894736305814</v>
       </c>
       <c r="J24">
-        <v>0.9916048677020068</v>
+        <v>0.9853292230085656</v>
       </c>
       <c r="K24">
-        <v>1.004270152528218</v>
+        <v>0.9977656952589029</v>
       </c>
       <c r="L24">
-        <v>0.9886632413552012</v>
+        <v>0.9837408724328983</v>
       </c>
       <c r="M24">
-        <v>0.9968229215725366</v>
+        <v>0.9371918774184825</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9779447531862834</v>
+        <v>0.9699972722195876</v>
       </c>
       <c r="D25">
-        <v>1.001572771226668</v>
+        <v>0.9938353423621892</v>
       </c>
       <c r="E25">
-        <v>0.9869578310985054</v>
+        <v>0.9806135410451304</v>
       </c>
       <c r="F25">
-        <v>0.9966532196832946</v>
+        <v>0.9414942270049621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038076442229333</v>
+        <v>1.030941499460155</v>
       </c>
       <c r="J25">
-        <v>1.003237864644025</v>
+        <v>0.9955783237895727</v>
       </c>
       <c r="K25">
-        <v>1.014146720912235</v>
+        <v>1.006530116490406</v>
       </c>
       <c r="L25">
-        <v>0.9997620412053223</v>
+        <v>0.9935204515079029</v>
       </c>
       <c r="M25">
-        <v>1.009303713231484</v>
+        <v>0.9550741664998272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9804158134198503</v>
+        <v>0.9997374061075455</v>
       </c>
       <c r="D2">
-        <v>1.001603210012074</v>
+        <v>1.01716117765869</v>
       </c>
       <c r="E2">
-        <v>0.9891936966604485</v>
+        <v>1.006225238771742</v>
       </c>
       <c r="F2">
-        <v>0.9562002453650246</v>
+        <v>0.9765787512845656</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03391331181238</v>
+        <v>1.042992725647497</v>
       </c>
       <c r="J2">
-        <v>1.003198490060253</v>
+        <v>1.021925974151495</v>
       </c>
       <c r="K2">
-        <v>1.013040254669135</v>
+        <v>1.028386497174979</v>
       </c>
       <c r="L2">
-        <v>1.000805662068159</v>
+        <v>1.017598522107751</v>
       </c>
       <c r="M2">
-        <v>0.9683054948449283</v>
+        <v>0.9883743211878852</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9876194866356323</v>
+        <v>1.004151515626448</v>
       </c>
       <c r="D3">
-        <v>1.00698077950624</v>
+        <v>1.020344672572042</v>
       </c>
       <c r="E3">
-        <v>0.995141697080158</v>
+        <v>1.009738003615327</v>
       </c>
       <c r="F3">
-        <v>0.9663255190276757</v>
+        <v>0.9836668015950566</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035940261756327</v>
+        <v>1.044456183463143</v>
       </c>
       <c r="J3">
-        <v>1.008453442860649</v>
+        <v>1.024529642402557</v>
       </c>
       <c r="K3">
-        <v>1.017525112408211</v>
+        <v>1.030723692600152</v>
       </c>
       <c r="L3">
-        <v>1.00583712055893</v>
+        <v>1.020247782858145</v>
       </c>
       <c r="M3">
-        <v>0.9774082082972179</v>
+        <v>0.9945130243850009</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9921300534985654</v>
+        <v>1.006943876407566</v>
       </c>
       <c r="D4">
-        <v>1.010350153132695</v>
+        <v>1.022360408618694</v>
       </c>
       <c r="E4">
-        <v>0.9988724910870111</v>
+        <v>1.011965836365332</v>
       </c>
       <c r="F4">
-        <v>0.9726504134619355</v>
+        <v>0.9881384827196323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037196166593336</v>
+        <v>1.04537014086646</v>
       </c>
       <c r="J4">
-        <v>1.011737238461738</v>
+        <v>1.026171609684597</v>
       </c>
       <c r="K4">
-        <v>1.020325245503055</v>
+        <v>1.032196250490328</v>
       </c>
       <c r="L4">
-        <v>1.00898454322329</v>
+        <v>1.021921957957716</v>
       </c>
       <c r="M4">
-        <v>0.9830905299425605</v>
+        <v>0.9983822058043174</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9939923948165752</v>
+        <v>1.008103082416766</v>
       </c>
       <c r="D5">
-        <v>1.011741729263289</v>
+        <v>1.023197610306831</v>
       </c>
       <c r="E5">
-        <v>1.000414336838489</v>
+        <v>1.012892008423671</v>
       </c>
       <c r="F5">
-        <v>0.9752588780213509</v>
+        <v>0.9899922961099984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037711468876265</v>
+        <v>1.04574668740034</v>
       </c>
       <c r="J5">
-        <v>1.013091457390469</v>
+        <v>1.026852008740548</v>
       </c>
       <c r="K5">
-        <v>1.021479378511213</v>
+        <v>1.032806106247129</v>
       </c>
       <c r="L5">
-        <v>1.010283289020346</v>
+        <v>1.022616526716479</v>
       </c>
       <c r="M5">
-        <v>0.9854330109029494</v>
+        <v>0.9999853501483664</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9943031615484931</v>
+        <v>1.00829687245444</v>
       </c>
       <c r="D6">
-        <v>1.011973961127958</v>
+        <v>1.023337591491054</v>
       </c>
       <c r="E6">
-        <v>1.000671706221365</v>
+        <v>1.013046917680465</v>
       </c>
       <c r="F6">
-        <v>0.9756939907831789</v>
+        <v>0.990302068766157</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037797264491131</v>
+        <v>1.045809466893478</v>
       </c>
       <c r="J6">
-        <v>1.013317338910762</v>
+        <v>1.026965681121571</v>
       </c>
       <c r="K6">
-        <v>1.021671848000747</v>
+        <v>1.032907972488714</v>
       </c>
       <c r="L6">
-        <v>1.010499962185641</v>
+        <v>1.022732614662629</v>
       </c>
       <c r="M6">
-        <v>0.9858236961960718</v>
+        <v>1.000253182549992</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9921550686803586</v>
+        <v>1.006959422794457</v>
       </c>
       <c r="D7">
-        <v>1.010368843446752</v>
+        <v>1.022371635010839</v>
       </c>
       <c r="E7">
-        <v>0.998893195668124</v>
+        <v>1.01197825230502</v>
       </c>
       <c r="F7">
-        <v>0.9726854617001018</v>
+        <v>0.9881633541780689</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037203101102053</v>
+        <v>1.04537520220164</v>
       </c>
       <c r="J7">
-        <v>1.011755434891348</v>
+        <v>1.026180739589878</v>
       </c>
       <c r="K7">
-        <v>1.020340755944441</v>
+        <v>1.032204435193005</v>
       </c>
       <c r="L7">
-        <v>1.009001991260795</v>
+        <v>1.021931274748821</v>
       </c>
       <c r="M7">
-        <v>0.9831220082880417</v>
+        <v>0.998403717763139</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9828829078755679</v>
+        <v>1.001242762849113</v>
       </c>
       <c r="D8">
-        <v>1.003444361682236</v>
+        <v>1.018246434444629</v>
       </c>
       <c r="E8">
-        <v>0.9912293265698533</v>
+        <v>1.007421995219048</v>
       </c>
       <c r="F8">
-        <v>0.9596715061009482</v>
+        <v>0.978998824112011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0346102650678</v>
+        <v>1.043494276492309</v>
       </c>
       <c r="J8">
-        <v>1.004999566735291</v>
+        <v>1.022814976516861</v>
       </c>
       <c r="K8">
-        <v>1.014577878167239</v>
+        <v>1.029184790760538</v>
       </c>
       <c r="L8">
-        <v>1.002529427657342</v>
+        <v>1.018502360729147</v>
       </c>
       <c r="M8">
-        <v>0.9714269569394574</v>
+        <v>0.9904709902285951</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.965279710402313</v>
+        <v>0.9906518763748374</v>
       </c>
       <c r="D9">
-        <v>0.9903224346000611</v>
+        <v>1.010621081518541</v>
       </c>
       <c r="E9">
-        <v>0.9767370677531194</v>
+        <v>0.9990279933154945</v>
       </c>
       <c r="F9">
-        <v>0.9348072872354179</v>
+        <v>0.9619025425365383</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02958219135229</v>
+        <v>1.03991653791375</v>
       </c>
       <c r="J9">
-        <v>0.9921210565864788</v>
+        <v>1.016539115268016</v>
       </c>
       <c r="K9">
-        <v>1.003574499516449</v>
+        <v>1.023544157745859</v>
       </c>
       <c r="L9">
-        <v>0.9902191932426172</v>
+        <v>1.012136860359833</v>
       </c>
       <c r="M9">
-        <v>0.949054727876667</v>
+        <v>0.9756455243480862</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9525157841687723</v>
+        <v>0.9832005740191511</v>
       </c>
       <c r="D10">
-        <v>0.9808340090419781</v>
+        <v>1.005271166380435</v>
       </c>
       <c r="E10">
-        <v>0.9662758800201453</v>
+        <v>0.9931569934407432</v>
       </c>
       <c r="F10">
-        <v>0.916611981828904</v>
+        <v>0.9497626741695524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025868397394915</v>
+        <v>1.037338240525989</v>
       </c>
       <c r="J10">
-        <v>0.9827488080733587</v>
+        <v>1.012096944912356</v>
       </c>
       <c r="K10">
-        <v>0.995558154063906</v>
+        <v>1.019545896062216</v>
       </c>
       <c r="L10">
-        <v>0.981281952934314</v>
+        <v>1.007650909520652</v>
       </c>
       <c r="M10">
-        <v>0.9326698451915059</v>
+        <v>0.9651023528024009</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9466963001197302</v>
+        <v>0.979870762724305</v>
       </c>
       <c r="D11">
-        <v>0.976516631343764</v>
+        <v>1.002884748458767</v>
       </c>
       <c r="E11">
-        <v>0.9615194495477196</v>
+        <v>0.9905422587066822</v>
       </c>
       <c r="F11">
-        <v>0.9082596583772955</v>
+        <v>0.9443029449050009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024160025533849</v>
+        <v>1.036171974766126</v>
       </c>
       <c r="J11">
-        <v>0.9784679272094361</v>
+        <v>1.010105598135591</v>
       </c>
       <c r="K11">
-        <v>0.9918954268363729</v>
+        <v>1.017752466930331</v>
       </c>
       <c r="L11">
-        <v>0.9772054642105198</v>
+        <v>1.005644765716571</v>
       </c>
       <c r="M11">
-        <v>0.9251471422270268</v>
+        <v>0.9603576410235448</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9444857397905281</v>
+        <v>0.9786173930227641</v>
       </c>
       <c r="D12">
-        <v>0.974878199990366</v>
+        <v>1.00198720065988</v>
       </c>
       <c r="E12">
-        <v>0.9597148645110605</v>
+        <v>0.9895594417496568</v>
       </c>
       <c r="F12">
-        <v>0.9050767033795799</v>
+        <v>0.9422418457000323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023508914099096</v>
+        <v>1.035730901963436</v>
       </c>
       <c r="J12">
-        <v>0.9768406704217436</v>
+        <v>1.009355105241431</v>
       </c>
       <c r="K12">
-        <v>0.9905030567035799</v>
+        <v>1.017076427814239</v>
       </c>
       <c r="L12">
-        <v>0.975656818673032</v>
+        <v>1.004889437680964</v>
       </c>
       <c r="M12">
-        <v>0.9222803098393473</v>
+        <v>0.9585660705379512</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9449622165373862</v>
+        <v>0.9788870101761492</v>
       </c>
       <c r="D13">
-        <v>0.9752312829311617</v>
+        <v>1.002180241909936</v>
       </c>
       <c r="E13">
-        <v>0.9601037338892348</v>
+        <v>0.9897707954392684</v>
       </c>
       <c r="F13">
-        <v>0.9057632720314432</v>
+        <v>0.9426855018658551</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023649354965193</v>
+        <v>1.035825876213121</v>
       </c>
       <c r="J13">
-        <v>0.9771914698000279</v>
+        <v>1.009516588712594</v>
       </c>
       <c r="K13">
-        <v>0.99080322226332</v>
+        <v>1.0172218968319</v>
       </c>
       <c r="L13">
-        <v>0.9759906287960133</v>
+        <v>1.00505192776171</v>
       </c>
       <c r="M13">
-        <v>0.9228986885907813</v>
+        <v>0.9589517268676065</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9465146047784773</v>
+        <v>0.9797675021126764</v>
       </c>
       <c r="D14">
-        <v>0.9763819289255637</v>
+        <v>1.002810787683455</v>
       </c>
       <c r="E14">
-        <v>0.9613710779311865</v>
+        <v>0.9904612593426622</v>
       </c>
       <c r="F14">
-        <v>0.9079982576180118</v>
+        <v>0.9441332653714202</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024106551446778</v>
+        <v>1.036135678422316</v>
       </c>
       <c r="J14">
-        <v>0.9783341990800701</v>
+        <v>1.010043786657977</v>
       </c>
       <c r="K14">
-        <v>0.9917810029280854</v>
+        <v>1.017696790181217</v>
       </c>
       <c r="L14">
-        <v>0.9770781773985815</v>
+        <v>1.005582540853601</v>
       </c>
       <c r="M14">
-        <v>0.9249117026263689</v>
+        <v>0.9602101580445458</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.947464433507594</v>
+        <v>0.9803077803991457</v>
       </c>
       <c r="D15">
-        <v>0.9770861621624655</v>
+        <v>1.003197793670887</v>
       </c>
       <c r="E15">
-        <v>0.9621467931064812</v>
+        <v>0.9908851197803532</v>
       </c>
       <c r="F15">
-        <v>0.9093643247457113</v>
+        <v>0.9450208097490504</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024386004260228</v>
+        <v>1.036325502963272</v>
       </c>
       <c r="J15">
-        <v>0.9790332286645578</v>
+        <v>1.010367157572373</v>
       </c>
       <c r="K15">
-        <v>0.9923791216586829</v>
+        <v>1.017988061432465</v>
       </c>
       <c r="L15">
-        <v>0.9777435742484686</v>
+        <v>1.005908104712052</v>
       </c>
       <c r="M15">
-        <v>0.9261420978266124</v>
+        <v>0.96098158293516</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.952895432200259</v>
+        <v>0.983419301660483</v>
       </c>
       <c r="D16">
-        <v>0.9811158624366787</v>
+        <v>1.005428020619706</v>
       </c>
       <c r="E16">
-        <v>0.9665864642350835</v>
+        <v>0.9933289388583576</v>
       </c>
       <c r="F16">
-        <v>0.9171555578221423</v>
+        <v>0.9501205241020381</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02597954280562</v>
+        <v>1.037414559831354</v>
       </c>
       <c r="J16">
-        <v>0.9830279235102535</v>
+        <v>1.012227622490205</v>
       </c>
       <c r="K16">
-        <v>0.9957969486238613</v>
+        <v>1.019663565420653</v>
       </c>
       <c r="L16">
-        <v>0.981547864256451</v>
+        <v>1.007782659765415</v>
       </c>
       <c r="M16">
-        <v>0.933159413693427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9654132794800898</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9562205430456349</v>
+        <v>0.985342727477846</v>
       </c>
       <c r="D17">
-        <v>0.9835854518577385</v>
+        <v>1.006807850604202</v>
       </c>
       <c r="E17">
-        <v>0.9693081858625668</v>
+        <v>0.9948419910187214</v>
       </c>
       <c r="F17">
-        <v>0.9219098908504593</v>
+        <v>0.953263320300431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026951309349432</v>
+        <v>1.038084093245274</v>
       </c>
       <c r="J17">
-        <v>0.9854716596145877</v>
+        <v>1.013376053672019</v>
       </c>
       <c r="K17">
-        <v>0.9978875417976131</v>
+        <v>1.020697557257868</v>
       </c>
       <c r="L17">
-        <v>0.9838766403754662</v>
+        <v>1.008941067309696</v>
       </c>
       <c r="M17">
-        <v>0.9374412331816424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9681436340153144</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9581321667485029</v>
+        <v>0.9864547299327987</v>
       </c>
       <c r="D18">
-        <v>0.9850060287827042</v>
+        <v>1.007605986076971</v>
       </c>
       <c r="E18">
-        <v>0.9708741353836574</v>
+        <v>0.995717578036807</v>
       </c>
       <c r="F18">
-        <v>0.9246380296308061</v>
+        <v>0.9550770555619552</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027508561144838</v>
+        <v>1.038469838890904</v>
       </c>
       <c r="J18">
-        <v>0.9868758481308249</v>
+        <v>1.014039411947224</v>
       </c>
       <c r="K18">
-        <v>0.9990886962176194</v>
+        <v>1.02129470925078</v>
       </c>
       <c r="L18">
-        <v>0.9852152998791888</v>
+        <v>1.009610643373293</v>
       </c>
       <c r="M18">
-        <v>0.9398980870866399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9697190511396143</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.95877939425817</v>
+        <v>0.9868322439353323</v>
       </c>
       <c r="D19">
-        <v>0.9854871288439577</v>
+        <v>1.007877012068058</v>
       </c>
       <c r="E19">
-        <v>0.9714045275751134</v>
+        <v>0.9960149715095339</v>
       </c>
       <c r="F19">
-        <v>0.9255608819015135</v>
+        <v>0.9556922754304847</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027696988638868</v>
+        <v>1.038600568095763</v>
       </c>
       <c r="J19">
-        <v>0.9873511465668106</v>
+        <v>1.014264515068701</v>
       </c>
       <c r="K19">
-        <v>0.999495248383002</v>
+        <v>1.02149732770861</v>
       </c>
       <c r="L19">
-        <v>0.9856685055410058</v>
+        <v>1.009837933205662</v>
       </c>
       <c r="M19">
-        <v>0.940729141755531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9702533816291113</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9558667049242271</v>
+        <v>0.9851373929786524</v>
       </c>
       <c r="D20">
-        <v>0.9833225686425431</v>
+        <v>1.006660504869433</v>
       </c>
       <c r="E20">
-        <v>0.9690184288532049</v>
+        <v>0.9946803785592069</v>
       </c>
       <c r="F20">
-        <v>0.9214045110111964</v>
+        <v>0.9529281530002727</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026848047092479</v>
+        <v>1.03801275589758</v>
       </c>
       <c r="J20">
-        <v>0.98521168759691</v>
+        <v>1.013253514745201</v>
       </c>
       <c r="K20">
-        <v>0.9976651496294948</v>
+        <v>1.020587239731486</v>
       </c>
       <c r="L20">
-        <v>0.9836288428369465</v>
+        <v>1.008817416522132</v>
       </c>
       <c r="M20">
-        <v>0.9369860950391381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9678524821979634</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9460588604720626</v>
+        <v>0.9795086839898461</v>
       </c>
       <c r="D21">
-        <v>0.9760440821215955</v>
+        <v>1.00262542013831</v>
       </c>
       <c r="E21">
-        <v>0.9609989546697718</v>
+        <v>0.9902582606581153</v>
       </c>
       <c r="F21">
-        <v>0.9073424172177283</v>
+        <v>0.9437078715334019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023972388373269</v>
+        <v>1.036044669878026</v>
       </c>
       <c r="J21">
-        <v>0.9779987520919351</v>
+        <v>1.009888843937268</v>
       </c>
       <c r="K21">
-        <v>0.9914939780551956</v>
+        <v>1.017557223259457</v>
       </c>
       <c r="L21">
-        <v>0.976758902932813</v>
+        <v>1.005426573895226</v>
       </c>
       <c r="M21">
-        <v>0.9243209974987884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9598404057597197</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.939605976868348</v>
+        <v>0.9758734910559513</v>
       </c>
       <c r="D22">
-        <v>0.971264547024136</v>
+        <v>1.000023676195329</v>
       </c>
       <c r="E22">
-        <v>0.9557355244295328</v>
+        <v>0.9874104667546909</v>
       </c>
       <c r="F22">
-        <v>0.8980290686746571</v>
+        <v>0.9377176243098426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022067689267508</v>
+        <v>1.034761508149681</v>
       </c>
       <c r="J22">
-        <v>0.9732464479717589</v>
+        <v>1.007710398477082</v>
       </c>
       <c r="K22">
-        <v>0.9874275915894113</v>
+        <v>1.015594664070264</v>
       </c>
       <c r="L22">
-        <v>0.9722380032369025</v>
+        <v>1.003235519447205</v>
       </c>
       <c r="M22">
-        <v>0.9159327982745648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9546328250159745</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9430558052185056</v>
+        <v>0.9778100535944467</v>
       </c>
       <c r="D23">
-        <v>0.9738188241149079</v>
+        <v>1.001409270592241</v>
       </c>
       <c r="E23">
-        <v>0.9585481787923872</v>
+        <v>0.9889267745451945</v>
       </c>
       <c r="F23">
-        <v>0.9030146039595365</v>
+        <v>0.9409124180051196</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02308713142377</v>
+        <v>1.035446209723997</v>
       </c>
       <c r="J23">
-        <v>0.9757877350613946</v>
+        <v>1.008871424012048</v>
       </c>
       <c r="K23">
-        <v>0.9896020951031198</v>
+        <v>1.016640695642407</v>
       </c>
       <c r="L23">
-        <v>0.9746550169119477</v>
+        <v>1.004402851441636</v>
       </c>
       <c r="M23">
-        <v>0.9204230288141437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9574103880903228</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9560266748615912</v>
+        <v>0.9852302053184483</v>
       </c>
       <c r="D24">
-        <v>0.9834414154776219</v>
+        <v>1.006727104711313</v>
       </c>
       <c r="E24">
-        <v>0.9691494239988347</v>
+        <v>0.9947534257026888</v>
       </c>
       <c r="F24">
-        <v>0.9216330087341752</v>
+        <v>0.9530796604495346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026894736305814</v>
+        <v>1.038045004923661</v>
       </c>
       <c r="J24">
-        <v>0.9853292230085656</v>
+        <v>1.013308904859574</v>
       </c>
       <c r="K24">
-        <v>0.9977656952589029</v>
+        <v>1.020637105845202</v>
       </c>
       <c r="L24">
-        <v>0.9837408724328983</v>
+        <v>1.008873307809026</v>
       </c>
       <c r="M24">
-        <v>0.9371918774184825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9679840940142294</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9699972722195876</v>
+        <v>0.9934553890534349</v>
       </c>
       <c r="D25">
-        <v>0.9938353423621892</v>
+        <v>1.012637263624669</v>
       </c>
       <c r="E25">
-        <v>0.9806135410451304</v>
+        <v>1.001244215752948</v>
       </c>
       <c r="F25">
-        <v>0.9414942270049621</v>
+        <v>0.9664448207936647</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030941499460155</v>
+        <v>1.040874247763243</v>
       </c>
       <c r="J25">
-        <v>0.9955783237895727</v>
+        <v>1.018205030827136</v>
       </c>
       <c r="K25">
-        <v>1.006530116490406</v>
+        <v>1.025042519427553</v>
       </c>
       <c r="L25">
-        <v>0.9935204515079029</v>
+        <v>1.013823247531178</v>
       </c>
       <c r="M25">
-        <v>0.9550741664998272</v>
+        <v>0.9795873748161915</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9997374061075455</v>
+        <v>1.026462783288294</v>
       </c>
       <c r="D2">
-        <v>1.01716117765869</v>
+        <v>1.030756564931889</v>
       </c>
       <c r="E2">
-        <v>1.006225238771742</v>
+        <v>1.026685550906304</v>
       </c>
       <c r="F2">
-        <v>0.9765787512845656</v>
+        <v>1.024979714447531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042992725647497</v>
+        <v>1.033926948399888</v>
       </c>
       <c r="J2">
-        <v>1.021925974151495</v>
+        <v>1.031626087283112</v>
       </c>
       <c r="K2">
-        <v>1.028386497174979</v>
+        <v>1.033566654395866</v>
       </c>
       <c r="L2">
-        <v>1.017598522107751</v>
+        <v>1.029507475098478</v>
       </c>
       <c r="M2">
-        <v>0.9883743211878852</v>
+        <v>1.02780662802701</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004151515626448</v>
+        <v>1.027365618354494</v>
       </c>
       <c r="D3">
-        <v>1.020344672572042</v>
+        <v>1.031420536549801</v>
       </c>
       <c r="E3">
-        <v>1.009738003615327</v>
+        <v>1.027450649110859</v>
       </c>
       <c r="F3">
-        <v>0.9836668015950566</v>
+        <v>1.026516456930326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044456183463143</v>
+        <v>1.034157352540494</v>
       </c>
       <c r="J3">
-        <v>1.024529642402557</v>
+        <v>1.03216893292375</v>
       </c>
       <c r="K3">
-        <v>1.030723692600152</v>
+        <v>1.03403943531443</v>
       </c>
       <c r="L3">
-        <v>1.020247782858145</v>
+        <v>1.030080254816403</v>
       </c>
       <c r="M3">
-        <v>0.9945130243850009</v>
+        <v>1.029148595215378</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006943876407566</v>
+        <v>1.027949773309699</v>
       </c>
       <c r="D4">
-        <v>1.022360408618694</v>
+        <v>1.031850051738741</v>
       </c>
       <c r="E4">
-        <v>1.011965836365332</v>
+        <v>1.027946071304067</v>
       </c>
       <c r="F4">
-        <v>0.9881384827196323</v>
+        <v>1.027510787652377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04537014086646</v>
+        <v>1.034305009878391</v>
       </c>
       <c r="J4">
-        <v>1.026171609684597</v>
+        <v>1.032519535329838</v>
       </c>
       <c r="K4">
-        <v>1.032196250490328</v>
+        <v>1.034344556731738</v>
       </c>
       <c r="L4">
-        <v>1.021921957957716</v>
+        <v>1.03045057565342</v>
       </c>
       <c r="M4">
-        <v>0.9983822058043174</v>
+        <v>1.030016411982709</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008103082416766</v>
+        <v>1.028195342375544</v>
       </c>
       <c r="D5">
-        <v>1.023197610306831</v>
+        <v>1.032030590756867</v>
       </c>
       <c r="E5">
-        <v>1.012892008423671</v>
+        <v>1.028154430534757</v>
       </c>
       <c r="F5">
-        <v>0.9899922961099984</v>
+        <v>1.027928798395322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04574668740034</v>
+        <v>1.034366742579107</v>
       </c>
       <c r="J5">
-        <v>1.026852008740548</v>
+        <v>1.032666771611646</v>
       </c>
       <c r="K5">
-        <v>1.032806106247129</v>
+        <v>1.034472638060112</v>
       </c>
       <c r="L5">
-        <v>1.022616526716479</v>
+        <v>1.030606184957996</v>
       </c>
       <c r="M5">
-        <v>0.9999853501483664</v>
+        <v>1.030381120300875</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00829687245444</v>
+        <v>1.028236573929716</v>
       </c>
       <c r="D6">
-        <v>1.023337591491054</v>
+        <v>1.032060902321114</v>
       </c>
       <c r="E6">
-        <v>1.013046917680465</v>
+        <v>1.028189419858084</v>
       </c>
       <c r="F6">
-        <v>0.990302068766157</v>
+        <v>1.027998984030559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045809466893478</v>
+        <v>1.034377087684035</v>
       </c>
       <c r="J6">
-        <v>1.026965681121571</v>
+        <v>1.03269148402184</v>
       </c>
       <c r="K6">
-        <v>1.032907972488714</v>
+        <v>1.034494132226904</v>
       </c>
       <c r="L6">
-        <v>1.022732614662629</v>
+        <v>1.030632308120709</v>
       </c>
       <c r="M6">
-        <v>1.000253182549992</v>
+        <v>1.030442349403383</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006959422794457</v>
+        <v>1.027953054653821</v>
       </c>
       <c r="D7">
-        <v>1.022371635010839</v>
+        <v>1.031852464225458</v>
       </c>
       <c r="E7">
-        <v>1.01197825230502</v>
+        <v>1.027948855082087</v>
       </c>
       <c r="F7">
-        <v>0.9881633541780689</v>
+        <v>1.027516373149636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04537520220164</v>
+        <v>1.034305836099595</v>
       </c>
       <c r="J7">
-        <v>1.026180739589878</v>
+        <v>1.032521503325231</v>
       </c>
       <c r="K7">
-        <v>1.032204435193005</v>
+        <v>1.034346268914446</v>
       </c>
       <c r="L7">
-        <v>1.021931274748821</v>
+        <v>1.030452655202092</v>
       </c>
       <c r="M7">
-        <v>0.998403717763139</v>
+        <v>1.030021285706911</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001242762849113</v>
+        <v>1.026767908744719</v>
       </c>
       <c r="D8">
-        <v>1.018246434444629</v>
+        <v>1.030980981428997</v>
       </c>
       <c r="E8">
-        <v>1.007421995219048</v>
+        <v>1.026944046053388</v>
       </c>
       <c r="F8">
-        <v>0.978998824112011</v>
+        <v>1.025499075819118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043494276492309</v>
+        <v>1.034005110431305</v>
       </c>
       <c r="J8">
-        <v>1.022814976516861</v>
+        <v>1.031809680043489</v>
       </c>
       <c r="K8">
-        <v>1.029184790760538</v>
+        <v>1.033726598258475</v>
       </c>
       <c r="L8">
-        <v>1.018502360729147</v>
+        <v>1.029701111834851</v>
       </c>
       <c r="M8">
-        <v>0.9904709902285951</v>
+        <v>1.028260263395586</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9906518763748374</v>
+        <v>1.024679233058536</v>
       </c>
       <c r="D9">
-        <v>1.010621081518541</v>
+        <v>1.029444438179077</v>
       </c>
       <c r="E9">
-        <v>0.9990279933154945</v>
+        <v>1.025176171849323</v>
       </c>
       <c r="F9">
-        <v>0.9619025425365383</v>
+        <v>1.021943787557476</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03991653791375</v>
+        <v>1.033464253587397</v>
       </c>
       <c r="J9">
-        <v>1.016539115268016</v>
+        <v>1.030550346084387</v>
       </c>
       <c r="K9">
-        <v>1.023544157745859</v>
+        <v>1.032628550395407</v>
       </c>
       <c r="L9">
-        <v>1.012136860359833</v>
+        <v>1.028374467392577</v>
       </c>
       <c r="M9">
-        <v>0.9756455243480862</v>
+        <v>1.025152910786019</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9832005740191511</v>
+        <v>1.023286589072722</v>
       </c>
       <c r="D10">
-        <v>1.005271166380435</v>
+        <v>1.028419524776064</v>
       </c>
       <c r="E10">
-        <v>0.9931569934407432</v>
+        <v>1.023999458685189</v>
       </c>
       <c r="F10">
-        <v>0.9497626741695524</v>
+        <v>1.01957292554341</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037338240525989</v>
+        <v>1.033096337683156</v>
       </c>
       <c r="J10">
-        <v>1.012096944912356</v>
+        <v>1.029707427672209</v>
       </c>
       <c r="K10">
-        <v>1.019545896062216</v>
+        <v>1.031892427943602</v>
       </c>
       <c r="L10">
-        <v>1.007650909520652</v>
+        <v>1.027488488944158</v>
       </c>
       <c r="M10">
-        <v>0.9651023528024009</v>
+        <v>1.023078261464712</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.979870762724305</v>
+        <v>1.022683513287154</v>
       </c>
       <c r="D11">
-        <v>1.002884748458767</v>
+        <v>1.027975603018839</v>
       </c>
       <c r="E11">
-        <v>0.9905422587066822</v>
+        <v>1.023490379221881</v>
       </c>
       <c r="F11">
-        <v>0.9443029449050009</v>
+        <v>1.018546090449728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036171974766126</v>
+        <v>1.032935285785256</v>
       </c>
       <c r="J11">
-        <v>1.010105598135591</v>
+        <v>1.029341637763391</v>
       </c>
       <c r="K11">
-        <v>1.017752466930331</v>
+        <v>1.03157271150777</v>
       </c>
       <c r="L11">
-        <v>1.005644765716571</v>
+        <v>1.027104486094065</v>
       </c>
       <c r="M11">
-        <v>0.9603576410235448</v>
+        <v>1.022179127920688</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9786173930227641</v>
+        <v>1.022459496226217</v>
       </c>
       <c r="D12">
-        <v>1.00198720065988</v>
+        <v>1.027810692120232</v>
       </c>
       <c r="E12">
-        <v>0.9895594417496568</v>
+        <v>1.02330135179908</v>
       </c>
       <c r="F12">
-        <v>0.9422418457000323</v>
+        <v>1.018164636868392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035730901963436</v>
+        <v>1.032875202322423</v>
       </c>
       <c r="J12">
-        <v>1.009355105241431</v>
+        <v>1.029205646771389</v>
       </c>
       <c r="K12">
-        <v>1.017076427814239</v>
+        <v>1.031453808932986</v>
       </c>
       <c r="L12">
-        <v>1.004889437680964</v>
+        <v>1.026961795162861</v>
       </c>
       <c r="M12">
-        <v>0.9585660705379512</v>
+        <v>1.021845025030465</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9788870101761492</v>
+        <v>1.022507549003477</v>
       </c>
       <c r="D13">
-        <v>1.002180241909936</v>
+        <v>1.027846066900203</v>
       </c>
       <c r="E13">
-        <v>0.9897707954392684</v>
+        <v>1.023341895767206</v>
       </c>
       <c r="F13">
-        <v>0.9426855018658551</v>
+        <v>1.018246461919439</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035825876213121</v>
+        <v>1.032888102266611</v>
       </c>
       <c r="J13">
-        <v>1.009516588712594</v>
+        <v>1.029234822746851</v>
       </c>
       <c r="K13">
-        <v>1.0172218968319</v>
+        <v>1.031479320527597</v>
       </c>
       <c r="L13">
-        <v>1.00505192776171</v>
+        <v>1.026992405346209</v>
       </c>
       <c r="M13">
-        <v>0.9589517268676065</v>
+        <v>1.02191669695549</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9797675021126764</v>
+        <v>1.022664996127926</v>
       </c>
       <c r="D14">
-        <v>1.002810787683455</v>
+        <v>1.027961971808578</v>
       </c>
       <c r="E14">
-        <v>0.9904612593426622</v>
+        <v>1.023474752779314</v>
       </c>
       <c r="F14">
-        <v>0.9441332653714202</v>
+        <v>1.018514560254119</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036135678422316</v>
+        <v>1.032930324603925</v>
       </c>
       <c r="J14">
-        <v>1.010043786657977</v>
+        <v>1.029330399160586</v>
       </c>
       <c r="K14">
-        <v>1.017696790181217</v>
+        <v>1.031562885954263</v>
       </c>
       <c r="L14">
-        <v>1.005582540853601</v>
+        <v>1.027092692341811</v>
       </c>
       <c r="M14">
-        <v>0.9602101580445458</v>
+        <v>1.022151513443321</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9803077803991457</v>
+        <v>1.022762003453184</v>
       </c>
       <c r="D15">
-        <v>1.003197793670887</v>
+        <v>1.028033382200956</v>
       </c>
       <c r="E15">
-        <v>0.9908851197803532</v>
+        <v>1.023556619309087</v>
       </c>
       <c r="F15">
-        <v>0.9450208097490504</v>
+        <v>1.018679738838269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036325502963272</v>
+        <v>1.032956304515032</v>
       </c>
       <c r="J15">
-        <v>1.010367157572373</v>
+        <v>1.029389270996883</v>
       </c>
       <c r="K15">
-        <v>1.017988061432465</v>
+        <v>1.031614354075604</v>
       </c>
       <c r="L15">
-        <v>1.005908104712052</v>
+        <v>1.027154475163248</v>
       </c>
       <c r="M15">
-        <v>0.96098158293516</v>
+        <v>1.022296174964198</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.983419301660483</v>
+        <v>1.023326612128779</v>
       </c>
       <c r="D16">
-        <v>1.005428020619706</v>
+        <v>1.02844898376313</v>
       </c>
       <c r="E16">
-        <v>0.9933289388583576</v>
+        <v>1.024033254031931</v>
       </c>
       <c r="F16">
-        <v>0.9501205241020381</v>
+        <v>1.019641067733963</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037414559831354</v>
+        <v>1.033106989474716</v>
       </c>
       <c r="J16">
-        <v>1.012227622490205</v>
+        <v>1.029731687071125</v>
       </c>
       <c r="K16">
-        <v>1.019663565420653</v>
+        <v>1.031913626035769</v>
       </c>
       <c r="L16">
-        <v>1.007782659765415</v>
+        <v>1.027513966202313</v>
       </c>
       <c r="M16">
-        <v>0.9654132794800898</v>
+        <v>1.023137916788092</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.985342727477846</v>
+        <v>1.023680762319576</v>
       </c>
       <c r="D17">
-        <v>1.006807850604202</v>
+        <v>1.028709645909578</v>
       </c>
       <c r="E17">
-        <v>0.9948419910187214</v>
+        <v>1.024332353912604</v>
       </c>
       <c r="F17">
-        <v>0.953263320300431</v>
+        <v>1.020244016614212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038084093245274</v>
+        <v>1.033201043875503</v>
       </c>
       <c r="J17">
-        <v>1.013376053672019</v>
+        <v>1.029946261238073</v>
       </c>
       <c r="K17">
-        <v>1.020697557257868</v>
+        <v>1.032101091699156</v>
       </c>
       <c r="L17">
-        <v>1.008941067309696</v>
+        <v>1.027739366937072</v>
       </c>
       <c r="M17">
-        <v>0.9681436340153144</v>
+        <v>1.023665702400573</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9864547299327987</v>
+        <v>1.023887327147218</v>
       </c>
       <c r="D18">
-        <v>1.007605986076971</v>
+        <v>1.028861673391401</v>
       </c>
       <c r="E18">
-        <v>0.995717578036807</v>
+        <v>1.024506856726434</v>
       </c>
       <c r="F18">
-        <v>0.9550770555619552</v>
+        <v>1.020595684097117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038469838890904</v>
+        <v>1.033255736144421</v>
       </c>
       <c r="J18">
-        <v>1.014039411947224</v>
+        <v>1.030071341469004</v>
       </c>
       <c r="K18">
-        <v>1.02129470925078</v>
+        <v>1.032210343593914</v>
       </c>
       <c r="L18">
-        <v>1.009610643373293</v>
+        <v>1.027870803822566</v>
       </c>
       <c r="M18">
-        <v>0.9697190511396143</v>
+        <v>1.023973474283059</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9868322439353323</v>
+        <v>1.023957759572034</v>
       </c>
       <c r="D19">
-        <v>1.007877012068058</v>
+        <v>1.028913508723978</v>
       </c>
       <c r="E19">
-        <v>0.9960149715095339</v>
+        <v>1.024566364940435</v>
       </c>
       <c r="F19">
-        <v>0.9556922754304847</v>
+        <v>1.020715589998599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038600568095763</v>
+        <v>1.033274356284343</v>
       </c>
       <c r="J19">
-        <v>1.014264515068701</v>
+        <v>1.03011397749354</v>
       </c>
       <c r="K19">
-        <v>1.02149732770861</v>
+        <v>1.032247579776228</v>
       </c>
       <c r="L19">
-        <v>1.009837933205662</v>
+        <v>1.027915614368989</v>
       </c>
       <c r="M19">
-        <v>0.9702533816291113</v>
+        <v>1.024078403710352</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9851373929786524</v>
+        <v>1.023642765872058</v>
       </c>
       <c r="D20">
-        <v>1.006660504869433</v>
+        <v>1.028681680600188</v>
       </c>
       <c r="E20">
-        <v>0.9946803785592069</v>
+        <v>1.024300258883682</v>
       </c>
       <c r="F20">
-        <v>0.9529281530002727</v>
+        <v>1.020179328263743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03801275589758</v>
+        <v>1.033190970112226</v>
       </c>
       <c r="J20">
-        <v>1.013253514745201</v>
+        <v>1.02992324745122</v>
       </c>
       <c r="K20">
-        <v>1.020587239731486</v>
+        <v>1.032080988093563</v>
       </c>
       <c r="L20">
-        <v>1.008817416522132</v>
+        <v>1.02771518724719</v>
       </c>
       <c r="M20">
-        <v>0.9678524821979634</v>
+        <v>1.023609083951018</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795086839898461</v>
+        <v>1.022618632091806</v>
       </c>
       <c r="D21">
-        <v>1.00262542013831</v>
+        <v>1.027927841210687</v>
       </c>
       <c r="E21">
-        <v>0.9902582606581153</v>
+        <v>1.023435627837393</v>
       </c>
       <c r="F21">
-        <v>0.9437078715334019</v>
+        <v>1.018435613163891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036044669878026</v>
+        <v>1.032917898399225</v>
       </c>
       <c r="J21">
-        <v>1.009888843937268</v>
+        <v>1.02930225761106</v>
       </c>
       <c r="K21">
-        <v>1.017557223259457</v>
+        <v>1.031538282038463</v>
       </c>
       <c r="L21">
-        <v>1.005426573895226</v>
+        <v>1.027063161843012</v>
       </c>
       <c r="M21">
-        <v>0.9598404057597197</v>
+        <v>1.022082369321428</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9758734910559513</v>
+        <v>1.021974673000867</v>
       </c>
       <c r="D22">
-        <v>1.000023676195329</v>
+        <v>1.027453765168841</v>
       </c>
       <c r="E22">
-        <v>0.9874104667546909</v>
+        <v>1.022892389920512</v>
       </c>
       <c r="F22">
-        <v>0.9377176243098426</v>
+        <v>1.017339028380291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034761508149681</v>
+        <v>1.032744693777313</v>
       </c>
       <c r="J22">
-        <v>1.007710398477082</v>
+        <v>1.028911120416904</v>
       </c>
       <c r="K22">
-        <v>1.015594664070264</v>
+        <v>1.031196218560854</v>
       </c>
       <c r="L22">
-        <v>1.003235519447205</v>
+        <v>1.02665288844356</v>
       </c>
       <c r="M22">
-        <v>0.9546328250159745</v>
+        <v>1.021121739534301</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9778100535944467</v>
+        <v>1.022316052245995</v>
       </c>
       <c r="D23">
-        <v>1.001409270592241</v>
+        <v>1.027705091833811</v>
       </c>
       <c r="E23">
-        <v>0.9889267745451945</v>
+        <v>1.023180333497115</v>
       </c>
       <c r="F23">
-        <v>0.9409124180051196</v>
+        <v>1.017920373601281</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035446209723997</v>
+        <v>1.032836656269762</v>
       </c>
       <c r="J23">
-        <v>1.008871424012048</v>
+        <v>1.029118535654377</v>
       </c>
       <c r="K23">
-        <v>1.016640695642407</v>
+        <v>1.031377632703188</v>
       </c>
       <c r="L23">
-        <v>1.004402851441636</v>
+        <v>1.026870412334081</v>
       </c>
       <c r="M23">
-        <v>0.9574103880903228</v>
+        <v>1.021631057821886</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9852302053184483</v>
+        <v>1.023659934846406</v>
       </c>
       <c r="D24">
-        <v>1.006727104711313</v>
+        <v>1.028694316957851</v>
       </c>
       <c r="E24">
-        <v>0.9947534257026888</v>
+        <v>1.024314761113105</v>
       </c>
       <c r="F24">
-        <v>0.9530796604495346</v>
+        <v>1.020208558212677</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038045004923661</v>
+        <v>1.033195522531485</v>
       </c>
       <c r="J24">
-        <v>1.013308904859574</v>
+        <v>1.029933646629454</v>
       </c>
       <c r="K24">
-        <v>1.020637105845202</v>
+        <v>1.032090072336884</v>
       </c>
       <c r="L24">
-        <v>1.008873307809026</v>
+        <v>1.027726113118009</v>
       </c>
       <c r="M24">
-        <v>0.9679840940142294</v>
+        <v>1.023634667626547</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9934553890534349</v>
+        <v>1.025219240338076</v>
       </c>
       <c r="D25">
-        <v>1.012637263624669</v>
+        <v>1.029841771489021</v>
       </c>
       <c r="E25">
-        <v>1.001244215752948</v>
+        <v>1.025632882754793</v>
       </c>
       <c r="F25">
-        <v>0.9664448207936647</v>
+        <v>1.022863010937346</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040874247763243</v>
+        <v>1.033605373362013</v>
       </c>
       <c r="J25">
-        <v>1.018205030827136</v>
+        <v>1.030876507187855</v>
       </c>
       <c r="K25">
-        <v>1.025042519427553</v>
+        <v>1.032913144282034</v>
       </c>
       <c r="L25">
-        <v>1.013823247531178</v>
+        <v>1.028717710997193</v>
       </c>
       <c r="M25">
-        <v>0.9795873748161915</v>
+        <v>1.025956760369552</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026462783288294</v>
+        <v>0.9997374061075451</v>
       </c>
       <c r="D2">
-        <v>1.030756564931889</v>
+        <v>1.017161177658689</v>
       </c>
       <c r="E2">
-        <v>1.026685550906304</v>
+        <v>1.006225238771741</v>
       </c>
       <c r="F2">
-        <v>1.024979714447531</v>
+        <v>0.9765787512845651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033926948399888</v>
+        <v>1.042992725647497</v>
       </c>
       <c r="J2">
-        <v>1.031626087283112</v>
+        <v>1.021925974151495</v>
       </c>
       <c r="K2">
-        <v>1.033566654395866</v>
+        <v>1.028386497174979</v>
       </c>
       <c r="L2">
-        <v>1.029507475098478</v>
+        <v>1.017598522107751</v>
       </c>
       <c r="M2">
-        <v>1.02780662802701</v>
+        <v>0.9883743211878846</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027365618354494</v>
+        <v>1.004151515626447</v>
       </c>
       <c r="D3">
-        <v>1.031420536549801</v>
+        <v>1.020344672572041</v>
       </c>
       <c r="E3">
-        <v>1.027450649110859</v>
+        <v>1.009738003615327</v>
       </c>
       <c r="F3">
-        <v>1.026516456930326</v>
+        <v>0.983666801595056</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034157352540494</v>
+        <v>1.044456183463142</v>
       </c>
       <c r="J3">
-        <v>1.03216893292375</v>
+        <v>1.024529642402557</v>
       </c>
       <c r="K3">
-        <v>1.03403943531443</v>
+        <v>1.030723692600151</v>
       </c>
       <c r="L3">
-        <v>1.030080254816403</v>
+        <v>1.020247782858145</v>
       </c>
       <c r="M3">
-        <v>1.029148595215378</v>
+        <v>0.9945130243850004</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027949773309699</v>
+        <v>1.006943876407566</v>
       </c>
       <c r="D4">
-        <v>1.031850051738741</v>
+        <v>1.022360408618694</v>
       </c>
       <c r="E4">
-        <v>1.027946071304067</v>
+        <v>1.011965836365332</v>
       </c>
       <c r="F4">
-        <v>1.027510787652377</v>
+        <v>0.9881384827196324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034305009878391</v>
+        <v>1.04537014086646</v>
       </c>
       <c r="J4">
-        <v>1.032519535329838</v>
+        <v>1.026171609684597</v>
       </c>
       <c r="K4">
-        <v>1.034344556731738</v>
+        <v>1.032196250490328</v>
       </c>
       <c r="L4">
-        <v>1.03045057565342</v>
+        <v>1.021921957957715</v>
       </c>
       <c r="M4">
-        <v>1.030016411982709</v>
+        <v>0.9983822058043175</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028195342375544</v>
+        <v>1.008103082416765</v>
       </c>
       <c r="D5">
-        <v>1.032030590756867</v>
+        <v>1.02319761030683</v>
       </c>
       <c r="E5">
-        <v>1.028154430534757</v>
+        <v>1.012892008423671</v>
       </c>
       <c r="F5">
-        <v>1.027928798395322</v>
+        <v>0.9899922961099978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034366742579107</v>
+        <v>1.04574668740034</v>
       </c>
       <c r="J5">
-        <v>1.032666771611646</v>
+        <v>1.026852008740548</v>
       </c>
       <c r="K5">
-        <v>1.034472638060112</v>
+        <v>1.032806106247129</v>
       </c>
       <c r="L5">
-        <v>1.030606184957996</v>
+        <v>1.022616526716478</v>
       </c>
       <c r="M5">
-        <v>1.030381120300875</v>
+        <v>0.999985350148366</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028236573929716</v>
+        <v>1.00829687245444</v>
       </c>
       <c r="D6">
-        <v>1.032060902321114</v>
+        <v>1.023337591491054</v>
       </c>
       <c r="E6">
-        <v>1.028189419858084</v>
+        <v>1.013046917680465</v>
       </c>
       <c r="F6">
-        <v>1.027998984030559</v>
+        <v>0.9903020687661563</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034377087684035</v>
+        <v>1.045809466893478</v>
       </c>
       <c r="J6">
-        <v>1.03269148402184</v>
+        <v>1.02696568112157</v>
       </c>
       <c r="K6">
-        <v>1.034494132226904</v>
+        <v>1.032907972488714</v>
       </c>
       <c r="L6">
-        <v>1.030632308120709</v>
+        <v>1.022732614662628</v>
       </c>
       <c r="M6">
-        <v>1.030442349403383</v>
+        <v>1.000253182549991</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027953054653821</v>
+        <v>1.006959422794458</v>
       </c>
       <c r="D7">
-        <v>1.031852464225458</v>
+        <v>1.022371635010839</v>
       </c>
       <c r="E7">
-        <v>1.027948855082087</v>
+        <v>1.011978252305021</v>
       </c>
       <c r="F7">
-        <v>1.027516373149636</v>
+        <v>0.9881633541780693</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034305836099595</v>
+        <v>1.04537520220164</v>
       </c>
       <c r="J7">
-        <v>1.032521503325231</v>
+        <v>1.026180739589878</v>
       </c>
       <c r="K7">
-        <v>1.034346268914446</v>
+        <v>1.032204435193006</v>
       </c>
       <c r="L7">
-        <v>1.030452655202092</v>
+        <v>1.021931274748821</v>
       </c>
       <c r="M7">
-        <v>1.030021285706911</v>
+        <v>0.9984037177631394</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026767908744719</v>
+        <v>1.001242762849113</v>
       </c>
       <c r="D8">
-        <v>1.030980981428997</v>
+        <v>1.018246434444629</v>
       </c>
       <c r="E8">
-        <v>1.026944046053388</v>
+        <v>1.007421995219048</v>
       </c>
       <c r="F8">
-        <v>1.025499075819118</v>
+        <v>0.9789988241120114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034005110431305</v>
+        <v>1.043494276492309</v>
       </c>
       <c r="J8">
-        <v>1.031809680043489</v>
+        <v>1.022814976516861</v>
       </c>
       <c r="K8">
-        <v>1.033726598258475</v>
+        <v>1.029184790760538</v>
       </c>
       <c r="L8">
-        <v>1.029701111834851</v>
+        <v>1.018502360729147</v>
       </c>
       <c r="M8">
-        <v>1.028260263395586</v>
+        <v>0.9904709902285955</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024679233058536</v>
+        <v>0.9906518763748373</v>
       </c>
       <c r="D9">
-        <v>1.029444438179077</v>
+        <v>1.010621081518541</v>
       </c>
       <c r="E9">
-        <v>1.025176171849323</v>
+        <v>0.9990279933154946</v>
       </c>
       <c r="F9">
-        <v>1.021943787557476</v>
+        <v>0.9619025425365384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033464253587397</v>
+        <v>1.03991653791375</v>
       </c>
       <c r="J9">
-        <v>1.030550346084387</v>
+        <v>1.016539115268016</v>
       </c>
       <c r="K9">
-        <v>1.032628550395407</v>
+        <v>1.023544157745859</v>
       </c>
       <c r="L9">
-        <v>1.028374467392577</v>
+        <v>1.012136860359833</v>
       </c>
       <c r="M9">
-        <v>1.025152910786019</v>
+        <v>0.9756455243480865</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023286589072722</v>
+        <v>0.9832005740191502</v>
       </c>
       <c r="D10">
-        <v>1.028419524776064</v>
+        <v>1.005271166380434</v>
       </c>
       <c r="E10">
-        <v>1.023999458685189</v>
+        <v>0.9931569934407424</v>
       </c>
       <c r="F10">
-        <v>1.01957292554341</v>
+        <v>0.949762674169551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033096337683156</v>
+        <v>1.037338240525988</v>
       </c>
       <c r="J10">
-        <v>1.029707427672209</v>
+        <v>1.012096944912355</v>
       </c>
       <c r="K10">
-        <v>1.031892427943602</v>
+        <v>1.019545896062215</v>
       </c>
       <c r="L10">
-        <v>1.027488488944158</v>
+        <v>1.007650909520651</v>
       </c>
       <c r="M10">
-        <v>1.023078261464712</v>
+        <v>0.9651023528023993</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022683513287154</v>
+        <v>0.9798707627243046</v>
       </c>
       <c r="D11">
-        <v>1.027975603018839</v>
+        <v>1.002884748458766</v>
       </c>
       <c r="E11">
-        <v>1.023490379221881</v>
+        <v>0.9905422587066817</v>
       </c>
       <c r="F11">
-        <v>1.018546090449728</v>
+        <v>0.9443029449050002</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032935285785256</v>
+        <v>1.036171974766125</v>
       </c>
       <c r="J11">
-        <v>1.029341637763391</v>
+        <v>1.010105598135591</v>
       </c>
       <c r="K11">
-        <v>1.03157271150777</v>
+        <v>1.01775246693033</v>
       </c>
       <c r="L11">
-        <v>1.027104486094065</v>
+        <v>1.00564476571657</v>
       </c>
       <c r="M11">
-        <v>1.022179127920688</v>
+        <v>0.9603576410235439</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022459496226217</v>
+        <v>0.9786173930227646</v>
       </c>
       <c r="D12">
-        <v>1.027810692120232</v>
+        <v>1.001987200659881</v>
       </c>
       <c r="E12">
-        <v>1.02330135179908</v>
+        <v>0.9895594417496575</v>
       </c>
       <c r="F12">
-        <v>1.018164636868392</v>
+        <v>0.9422418457000334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032875202322423</v>
+        <v>1.035730901963436</v>
       </c>
       <c r="J12">
-        <v>1.029205646771389</v>
+        <v>1.009355105241431</v>
       </c>
       <c r="K12">
-        <v>1.031453808932986</v>
+        <v>1.01707642781424</v>
       </c>
       <c r="L12">
-        <v>1.026961795162861</v>
+        <v>1.004889437680964</v>
       </c>
       <c r="M12">
-        <v>1.021845025030465</v>
+        <v>0.9585660705379523</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022507549003477</v>
+        <v>0.9788870101761495</v>
       </c>
       <c r="D13">
-        <v>1.027846066900203</v>
+        <v>1.002180241909937</v>
       </c>
       <c r="E13">
-        <v>1.023341895767206</v>
+        <v>0.9897707954392686</v>
       </c>
       <c r="F13">
-        <v>1.018246461919439</v>
+        <v>0.942685501865855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032888102266611</v>
+        <v>1.035825876213121</v>
       </c>
       <c r="J13">
-        <v>1.029234822746851</v>
+        <v>1.009516588712594</v>
       </c>
       <c r="K13">
-        <v>1.031479320527597</v>
+        <v>1.0172218968319</v>
       </c>
       <c r="L13">
-        <v>1.026992405346209</v>
+        <v>1.00505192776171</v>
       </c>
       <c r="M13">
-        <v>1.02191669695549</v>
+        <v>0.9589517268676064</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022664996127926</v>
+        <v>0.9797675021126765</v>
       </c>
       <c r="D14">
-        <v>1.027961971808578</v>
+        <v>1.002810787683456</v>
       </c>
       <c r="E14">
-        <v>1.023474752779314</v>
+        <v>0.9904612593426618</v>
       </c>
       <c r="F14">
-        <v>1.018514560254119</v>
+        <v>0.9441332653714201</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032930324603925</v>
+        <v>1.036135678422316</v>
       </c>
       <c r="J14">
-        <v>1.029330399160586</v>
+        <v>1.010043786657977</v>
       </c>
       <c r="K14">
-        <v>1.031562885954263</v>
+        <v>1.017696790181217</v>
       </c>
       <c r="L14">
-        <v>1.027092692341811</v>
+        <v>1.005582540853601</v>
       </c>
       <c r="M14">
-        <v>1.022151513443321</v>
+        <v>0.9602101580445456</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022762003453184</v>
+        <v>0.9803077803991463</v>
       </c>
       <c r="D15">
-        <v>1.028033382200956</v>
+        <v>1.003197793670887</v>
       </c>
       <c r="E15">
-        <v>1.023556619309087</v>
+        <v>0.9908851197803535</v>
       </c>
       <c r="F15">
-        <v>1.018679738838269</v>
+        <v>0.945020809749051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032956304515032</v>
+        <v>1.036325502963272</v>
       </c>
       <c r="J15">
-        <v>1.029389270996883</v>
+        <v>1.010367157572373</v>
       </c>
       <c r="K15">
-        <v>1.031614354075604</v>
+        <v>1.017988061432466</v>
       </c>
       <c r="L15">
-        <v>1.027154475163248</v>
+        <v>1.005908104712052</v>
       </c>
       <c r="M15">
-        <v>1.022296174964198</v>
+        <v>0.9609815829351606</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023326612128779</v>
+        <v>0.9834193016604826</v>
       </c>
       <c r="D16">
-        <v>1.02844898376313</v>
+        <v>1.005428020619706</v>
       </c>
       <c r="E16">
-        <v>1.024033254031931</v>
+        <v>0.9933289388583574</v>
       </c>
       <c r="F16">
-        <v>1.019641067733963</v>
+        <v>0.9501205241020383</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033106989474716</v>
+        <v>1.037414559831353</v>
       </c>
       <c r="J16">
-        <v>1.029731687071125</v>
+        <v>1.012227622490205</v>
       </c>
       <c r="K16">
-        <v>1.031913626035769</v>
+        <v>1.019663565420653</v>
       </c>
       <c r="L16">
-        <v>1.027513966202313</v>
+        <v>1.007782659765414</v>
       </c>
       <c r="M16">
-        <v>1.023137916788092</v>
+        <v>0.9654132794800899</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023680762319576</v>
+        <v>0.9853427274778459</v>
       </c>
       <c r="D17">
-        <v>1.028709645909578</v>
+        <v>1.006807850604202</v>
       </c>
       <c r="E17">
-        <v>1.024332353912604</v>
+        <v>0.9948419910187212</v>
       </c>
       <c r="F17">
-        <v>1.020244016614212</v>
+        <v>0.9532633203004311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033201043875503</v>
+        <v>1.038084093245274</v>
       </c>
       <c r="J17">
-        <v>1.029946261238073</v>
+        <v>1.013376053672019</v>
       </c>
       <c r="K17">
-        <v>1.032101091699156</v>
+        <v>1.020697557257868</v>
       </c>
       <c r="L17">
-        <v>1.027739366937072</v>
+        <v>1.008941067309695</v>
       </c>
       <c r="M17">
-        <v>1.023665702400573</v>
+        <v>0.9681436340153144</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023887327147218</v>
+        <v>0.9864547299327986</v>
       </c>
       <c r="D18">
-        <v>1.028861673391401</v>
+        <v>1.007605986076971</v>
       </c>
       <c r="E18">
-        <v>1.024506856726434</v>
+        <v>0.9957175780368067</v>
       </c>
       <c r="F18">
-        <v>1.020595684097117</v>
+        <v>0.955077055561955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033255736144421</v>
+        <v>1.038469838890904</v>
       </c>
       <c r="J18">
-        <v>1.030071341469004</v>
+        <v>1.014039411947224</v>
       </c>
       <c r="K18">
-        <v>1.032210343593914</v>
+        <v>1.02129470925078</v>
       </c>
       <c r="L18">
-        <v>1.027870803822566</v>
+        <v>1.009610643373293</v>
       </c>
       <c r="M18">
-        <v>1.023973474283059</v>
+        <v>0.9697190511396143</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023957759572034</v>
+        <v>0.9868322439353326</v>
       </c>
       <c r="D19">
-        <v>1.028913508723978</v>
+        <v>1.007877012068058</v>
       </c>
       <c r="E19">
-        <v>1.024566364940435</v>
+        <v>0.9960149715095341</v>
       </c>
       <c r="F19">
-        <v>1.020715589998599</v>
+        <v>0.9556922754304853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033274356284343</v>
+        <v>1.038600568095764</v>
       </c>
       <c r="J19">
-        <v>1.03011397749354</v>
+        <v>1.014264515068702</v>
       </c>
       <c r="K19">
-        <v>1.032247579776228</v>
+        <v>1.02149732770861</v>
       </c>
       <c r="L19">
-        <v>1.027915614368989</v>
+        <v>1.009837933205662</v>
       </c>
       <c r="M19">
-        <v>1.024078403710352</v>
+        <v>0.9702533816291121</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023642765872058</v>
+        <v>0.9851373929786524</v>
       </c>
       <c r="D20">
-        <v>1.028681680600188</v>
+        <v>1.006660504869433</v>
       </c>
       <c r="E20">
-        <v>1.024300258883682</v>
+        <v>0.994680378559207</v>
       </c>
       <c r="F20">
-        <v>1.020179328263743</v>
+        <v>0.9529281530002732</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033190970112226</v>
+        <v>1.03801275589758</v>
       </c>
       <c r="J20">
-        <v>1.02992324745122</v>
+        <v>1.013253514745201</v>
       </c>
       <c r="K20">
-        <v>1.032080988093563</v>
+        <v>1.020587239731486</v>
       </c>
       <c r="L20">
-        <v>1.02771518724719</v>
+        <v>1.008817416522132</v>
       </c>
       <c r="M20">
-        <v>1.023609083951018</v>
+        <v>0.9678524821979638</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022618632091806</v>
+        <v>0.979508683989846</v>
       </c>
       <c r="D21">
-        <v>1.027927841210687</v>
+        <v>1.00262542013831</v>
       </c>
       <c r="E21">
-        <v>1.023435627837393</v>
+        <v>0.990258260658115</v>
       </c>
       <c r="F21">
-        <v>1.018435613163891</v>
+        <v>0.9437078715334019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032917898399225</v>
+        <v>1.036044669878026</v>
       </c>
       <c r="J21">
-        <v>1.02930225761106</v>
+        <v>1.009888843937267</v>
       </c>
       <c r="K21">
-        <v>1.031538282038463</v>
+        <v>1.017557223259457</v>
       </c>
       <c r="L21">
-        <v>1.027063161843012</v>
+        <v>1.005426573895226</v>
       </c>
       <c r="M21">
-        <v>1.022082369321428</v>
+        <v>0.9598404057597196</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021974673000867</v>
+        <v>0.9758734910559514</v>
       </c>
       <c r="D22">
-        <v>1.027453765168841</v>
+        <v>1.000023676195329</v>
       </c>
       <c r="E22">
-        <v>1.022892389920512</v>
+        <v>0.9874104667546909</v>
       </c>
       <c r="F22">
-        <v>1.017339028380291</v>
+        <v>0.9377176243098431</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032744693777313</v>
+        <v>1.034761508149681</v>
       </c>
       <c r="J22">
-        <v>1.028911120416904</v>
+        <v>1.007710398477082</v>
       </c>
       <c r="K22">
-        <v>1.031196218560854</v>
+        <v>1.015594664070264</v>
       </c>
       <c r="L22">
-        <v>1.02665288844356</v>
+        <v>1.003235519447205</v>
       </c>
       <c r="M22">
-        <v>1.021121739534301</v>
+        <v>0.9546328250159749</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022316052245995</v>
+        <v>0.9778100535944465</v>
       </c>
       <c r="D23">
-        <v>1.027705091833811</v>
+        <v>1.00140927059224</v>
       </c>
       <c r="E23">
-        <v>1.023180333497115</v>
+        <v>0.9889267745451946</v>
       </c>
       <c r="F23">
-        <v>1.017920373601281</v>
+        <v>0.940912418005119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032836656269762</v>
+        <v>1.035446209723996</v>
       </c>
       <c r="J23">
-        <v>1.029118535654377</v>
+        <v>1.008871424012047</v>
       </c>
       <c r="K23">
-        <v>1.031377632703188</v>
+        <v>1.016640695642406</v>
       </c>
       <c r="L23">
-        <v>1.026870412334081</v>
+        <v>1.004402851441636</v>
       </c>
       <c r="M23">
-        <v>1.021631057821886</v>
+        <v>0.9574103880903223</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023659934846406</v>
+        <v>0.9852302053184482</v>
       </c>
       <c r="D24">
-        <v>1.028694316957851</v>
+        <v>1.006727104711312</v>
       </c>
       <c r="E24">
-        <v>1.024314761113105</v>
+        <v>0.9947534257026888</v>
       </c>
       <c r="F24">
-        <v>1.020208558212677</v>
+        <v>0.9530796604495346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033195522531485</v>
+        <v>1.038045004923661</v>
       </c>
       <c r="J24">
-        <v>1.029933646629454</v>
+        <v>1.013308904859574</v>
       </c>
       <c r="K24">
-        <v>1.032090072336884</v>
+        <v>1.020637105845201</v>
       </c>
       <c r="L24">
-        <v>1.027726113118009</v>
+        <v>1.008873307809026</v>
       </c>
       <c r="M24">
-        <v>1.023634667626547</v>
+        <v>0.9679840940142292</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025219240338076</v>
+        <v>0.993455389053435</v>
       </c>
       <c r="D25">
-        <v>1.029841771489021</v>
+        <v>1.012637263624669</v>
       </c>
       <c r="E25">
-        <v>1.025632882754793</v>
+        <v>1.001244215752948</v>
       </c>
       <c r="F25">
-        <v>1.022863010937346</v>
+        <v>0.9664448207936643</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033605373362013</v>
+        <v>1.040874247763243</v>
       </c>
       <c r="J25">
-        <v>1.030876507187855</v>
+        <v>1.018205030827136</v>
       </c>
       <c r="K25">
-        <v>1.032913144282034</v>
+        <v>1.025042519427554</v>
       </c>
       <c r="L25">
-        <v>1.028717710997193</v>
+        <v>1.013823247531178</v>
       </c>
       <c r="M25">
-        <v>1.025956760369552</v>
+        <v>0.9795873748161915</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9997374061075451</v>
+        <v>1.00618916824188</v>
       </c>
       <c r="D2">
-        <v>1.017161177658689</v>
+        <v>1.023905871593549</v>
       </c>
       <c r="E2">
-        <v>1.006225238771741</v>
+        <v>1.011778993742125</v>
       </c>
       <c r="F2">
-        <v>0.9765787512845651</v>
+        <v>1.019303428911521</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042992725647497</v>
+        <v>1.044019805076717</v>
       </c>
       <c r="J2">
-        <v>1.021925974151495</v>
+        <v>1.028186325164798</v>
       </c>
       <c r="K2">
-        <v>1.028386497174979</v>
+        <v>1.035041910662016</v>
       </c>
       <c r="L2">
-        <v>1.017598522107751</v>
+        <v>1.023076631754424</v>
       </c>
       <c r="M2">
-        <v>0.9883743211878846</v>
+        <v>1.030500230460246</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.032711234266814</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035847911202092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004151515626447</v>
+        <v>1.009708287755285</v>
       </c>
       <c r="D3">
-        <v>1.020344672572041</v>
+        <v>1.026182446886433</v>
       </c>
       <c r="E3">
-        <v>1.009738003615327</v>
+        <v>1.01452731012559</v>
       </c>
       <c r="F3">
-        <v>0.983666801595056</v>
+        <v>1.022230168483846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044456183463142</v>
+        <v>1.044785638456933</v>
       </c>
       <c r="J3">
-        <v>1.024529642402557</v>
+        <v>1.029937748900006</v>
       </c>
       <c r="K3">
-        <v>1.030723692600151</v>
+        <v>1.036490929965512</v>
       </c>
       <c r="L3">
-        <v>1.020247782858145</v>
+        <v>1.024977625327928</v>
       </c>
       <c r="M3">
-        <v>0.9945130243850004</v>
+        <v>1.032586296950724</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03436223218235</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036869826000884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006943876407566</v>
+        <v>1.01194554909232</v>
       </c>
       <c r="D4">
-        <v>1.022360408618694</v>
+        <v>1.027633673689543</v>
       </c>
       <c r="E4">
-        <v>1.011965836365332</v>
+        <v>1.01628005355392</v>
       </c>
       <c r="F4">
-        <v>0.9881384827196324</v>
+        <v>1.024097271932754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04537014086646</v>
+        <v>1.045264562830189</v>
       </c>
       <c r="J4">
-        <v>1.026171609684597</v>
+        <v>1.031048545012637</v>
       </c>
       <c r="K4">
-        <v>1.032196250490328</v>
+        <v>1.037409643126459</v>
       </c>
       <c r="L4">
-        <v>1.021921957957715</v>
+        <v>1.026185884496108</v>
       </c>
       <c r="M4">
-        <v>0.9983822058043175</v>
+        <v>1.033913309547696</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035412481941839</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037520337920047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008103082416765</v>
+        <v>1.012879776512113</v>
       </c>
       <c r="D5">
-        <v>1.02319761030683</v>
+        <v>1.028242753530571</v>
       </c>
       <c r="E5">
-        <v>1.012892008423671</v>
+        <v>1.017013619237116</v>
       </c>
       <c r="F5">
-        <v>0.9899922961099978</v>
+        <v>1.024877263003085</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04574668740034</v>
+        <v>1.045464092829396</v>
       </c>
       <c r="J5">
-        <v>1.026852008740548</v>
+        <v>1.03151314325223</v>
       </c>
       <c r="K5">
-        <v>1.032806106247129</v>
+        <v>1.037795492305069</v>
       </c>
       <c r="L5">
-        <v>1.022616526716478</v>
+        <v>1.026691388040035</v>
       </c>
       <c r="M5">
-        <v>0.999985350148366</v>
+        <v>1.034467121059344</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035850789608184</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037800359118314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00829687245444</v>
+        <v>1.013039703887871</v>
       </c>
       <c r="D6">
-        <v>1.023337591491054</v>
+        <v>1.028349714694062</v>
       </c>
       <c r="E6">
-        <v>1.013046917680465</v>
+        <v>1.017139713694726</v>
       </c>
       <c r="F6">
-        <v>0.9903020687661563</v>
+        <v>1.025009423818422</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045809466893478</v>
+        <v>1.04549993904215</v>
       </c>
       <c r="J6">
-        <v>1.02696568112157</v>
+        <v>1.031594362955077</v>
       </c>
       <c r="K6">
-        <v>1.032907972488714</v>
+        <v>1.037864956980827</v>
       </c>
       <c r="L6">
-        <v>1.022732614662628</v>
+        <v>1.026779203166916</v>
       </c>
       <c r="M6">
-        <v>1.000253182549991</v>
+        <v>1.034561339220485</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035925357446732</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037858246898212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.006959422794458</v>
+        <v>1.011967761510573</v>
       </c>
       <c r="D7">
-        <v>1.022371635010839</v>
+        <v>1.027655221882924</v>
       </c>
       <c r="E7">
-        <v>1.011978252305021</v>
+        <v>1.016298685116712</v>
       </c>
       <c r="F7">
-        <v>0.9881633541780693</v>
+        <v>1.024111908085504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04537520220164</v>
+        <v>1.04527415705037</v>
       </c>
       <c r="J7">
-        <v>1.026180739589878</v>
+        <v>1.031064226606114</v>
       </c>
       <c r="K7">
-        <v>1.032204435193006</v>
+        <v>1.037428054828345</v>
       </c>
       <c r="L7">
-        <v>1.021931274748821</v>
+        <v>1.02620136322524</v>
       </c>
       <c r="M7">
-        <v>0.9984037177631394</v>
+        <v>1.033924872378621</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035421633212386</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037553528599228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001242762849113</v>
+        <v>1.007399010198201</v>
       </c>
       <c r="D8">
-        <v>1.018246434444629</v>
+        <v>1.024696447231945</v>
       </c>
       <c r="E8">
-        <v>1.007421995219048</v>
+        <v>1.012724234754349</v>
       </c>
       <c r="F8">
-        <v>0.9789988241120114</v>
+        <v>1.020303418230015</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043494276492309</v>
+        <v>1.044290708306734</v>
       </c>
       <c r="J8">
-        <v>1.022814976516861</v>
+        <v>1.02879473853093</v>
       </c>
       <c r="K8">
-        <v>1.029184790760538</v>
+        <v>1.035551966252092</v>
       </c>
       <c r="L8">
-        <v>1.018502360729147</v>
+        <v>1.02373456312624</v>
       </c>
       <c r="M8">
-        <v>0.9904709902285955</v>
+        <v>1.031215214517409</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.033277102183863</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036231550422741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9906518763748373</v>
+        <v>0.9990152315837888</v>
       </c>
       <c r="D9">
-        <v>1.010621081518541</v>
+        <v>1.01928832340146</v>
       </c>
       <c r="E9">
-        <v>0.9990279933154946</v>
+        <v>1.006208097531877</v>
       </c>
       <c r="F9">
-        <v>0.9619025425365384</v>
+        <v>1.013373132262064</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03991653791375</v>
+        <v>1.042416747807169</v>
       </c>
       <c r="J9">
-        <v>1.016539115268016</v>
+        <v>1.024602812551898</v>
       </c>
       <c r="K9">
-        <v>1.023544157745859</v>
+        <v>1.03207602464427</v>
       </c>
       <c r="L9">
-        <v>1.012136860359833</v>
+        <v>1.019201249319512</v>
       </c>
       <c r="M9">
-        <v>0.9756455243480865</v>
+        <v>1.02625290283208</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.029349714280055</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033770626171935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9832005740191502</v>
+        <v>0.9932899479685501</v>
       </c>
       <c r="D10">
-        <v>1.005271166380434</v>
+        <v>1.015630756488735</v>
       </c>
       <c r="E10">
-        <v>0.9931569934407424</v>
+        <v>1.001801329393593</v>
       </c>
       <c r="F10">
-        <v>0.949762674169551</v>
+        <v>1.008917110775979</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037338240525988</v>
+        <v>1.041122027101642</v>
       </c>
       <c r="J10">
-        <v>1.012096944912355</v>
+        <v>1.021772343491834</v>
       </c>
       <c r="K10">
-        <v>1.019545896062215</v>
+        <v>1.029723413597669</v>
       </c>
       <c r="L10">
-        <v>1.007650909520651</v>
+        <v>1.016138136269849</v>
       </c>
       <c r="M10">
-        <v>0.9651023528023993</v>
+        <v>1.023127209123771</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.026928063343834</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032124053532994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9798707627243046</v>
+        <v>0.9915002440637252</v>
       </c>
       <c r="D11">
-        <v>1.002884748458766</v>
+        <v>1.014577518538084</v>
       </c>
       <c r="E11">
-        <v>0.9905422587066817</v>
+        <v>1.000519422984907</v>
       </c>
       <c r="F11">
-        <v>0.9443029449050002</v>
+        <v>1.009440070370424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036171974766125</v>
+        <v>1.040896525021368</v>
       </c>
       <c r="J11">
-        <v>1.010105598135591</v>
+        <v>1.021230948286108</v>
       </c>
       <c r="K11">
-        <v>1.01775246693033</v>
+        <v>1.029229662616708</v>
       </c>
       <c r="L11">
-        <v>1.00564476571657</v>
+        <v>1.015431550392709</v>
       </c>
       <c r="M11">
-        <v>0.9603576410235439</v>
+        <v>1.024186129883416</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.028207531933806</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031807935364355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9786173930227646</v>
+        <v>0.9910796962351057</v>
       </c>
       <c r="D12">
-        <v>1.001987200659881</v>
+        <v>1.014367423074269</v>
       </c>
       <c r="E12">
-        <v>0.9895594417496575</v>
+        <v>1.000263220383414</v>
       </c>
       <c r="F12">
-        <v>0.9422418457000334</v>
+        <v>1.01046269970535</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035730901963436</v>
+        <v>1.040930049953513</v>
       </c>
       <c r="J12">
-        <v>1.009355105241431</v>
+        <v>1.021266436793319</v>
       </c>
       <c r="K12">
-        <v>1.01707642781424</v>
+        <v>1.029224447071992</v>
       </c>
       <c r="L12">
-        <v>1.004889437680964</v>
+        <v>1.015385379243059</v>
       </c>
       <c r="M12">
-        <v>0.9585660705379523</v>
+        <v>1.025392159041351</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029491052461863</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031804247776505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9788870101761495</v>
+        <v>0.9916923278463133</v>
       </c>
       <c r="D13">
-        <v>1.002180241909937</v>
+        <v>1.014803858963999</v>
       </c>
       <c r="E13">
-        <v>0.9897707954392686</v>
+        <v>1.000784362563844</v>
       </c>
       <c r="F13">
-        <v>0.942685501865855</v>
+        <v>1.011963537828152</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035825876213121</v>
+        <v>1.041175305348627</v>
       </c>
       <c r="J13">
-        <v>1.009516588712594</v>
+        <v>1.021758568775608</v>
       </c>
       <c r="K13">
-        <v>1.0172218968319</v>
+        <v>1.029609731135307</v>
       </c>
       <c r="L13">
-        <v>1.00505192776171</v>
+        <v>1.015852567377357</v>
       </c>
       <c r="M13">
-        <v>0.9589517268676064</v>
+        <v>1.026821792577716</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030900281555551</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032074155566721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9797675021126765</v>
+        <v>0.9925814904874161</v>
       </c>
       <c r="D14">
-        <v>1.002810787683456</v>
+        <v>1.015398192356112</v>
       </c>
       <c r="E14">
-        <v>0.9904612593426618</v>
+        <v>1.001494733354342</v>
       </c>
       <c r="F14">
-        <v>0.9441332653714201</v>
+        <v>1.013205115836488</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036135678422316</v>
+        <v>1.041439694948258</v>
       </c>
       <c r="J14">
-        <v>1.010043786657977</v>
+        <v>1.022302278484712</v>
       </c>
       <c r="K14">
-        <v>1.017696790181217</v>
+        <v>1.030052044557124</v>
       </c>
       <c r="L14">
-        <v>1.005582540853601</v>
+        <v>1.016405448073706</v>
       </c>
       <c r="M14">
-        <v>0.9602101580445456</v>
+        <v>1.027898874980812</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031926105928188</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032388318227847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9803077803991463</v>
+        <v>0.9930339746362308</v>
       </c>
       <c r="D15">
-        <v>1.003197793670887</v>
+        <v>1.015693993724381</v>
       </c>
       <c r="E15">
-        <v>0.9908851197803535</v>
+        <v>1.00184725450253</v>
       </c>
       <c r="F15">
-        <v>0.945020809749051</v>
+        <v>1.013659851422804</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036325502963272</v>
+        <v>1.041556535799255</v>
       </c>
       <c r="J15">
-        <v>1.010367157572373</v>
+        <v>1.022546585262674</v>
       </c>
       <c r="K15">
-        <v>1.017988061432466</v>
+        <v>1.030255573028374</v>
       </c>
       <c r="L15">
-        <v>1.005908104712052</v>
+        <v>1.016662683803111</v>
       </c>
       <c r="M15">
-        <v>0.9609815829351606</v>
+        <v>1.028258157182333</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032247823380317</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032538114000744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834193016604826</v>
+        <v>0.9953223091417849</v>
       </c>
       <c r="D16">
-        <v>1.005428020619706</v>
+        <v>1.017145902783433</v>
       </c>
       <c r="E16">
-        <v>0.9933289388583574</v>
+        <v>1.003592314684638</v>
       </c>
       <c r="F16">
-        <v>0.9501205241020383</v>
+        <v>1.015297601340304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037414559831353</v>
+        <v>1.042063263918636</v>
       </c>
       <c r="J16">
-        <v>1.012227622490205</v>
+        <v>1.023645370128487</v>
       </c>
       <c r="K16">
-        <v>1.019663565420653</v>
+        <v>1.031176543389328</v>
       </c>
       <c r="L16">
-        <v>1.007782659765414</v>
+        <v>1.017860522275956</v>
       </c>
       <c r="M16">
-        <v>0.9654132794800899</v>
+        <v>1.029360155699586</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033079903701574</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033192457182165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853427274778459</v>
+        <v>0.9966208441792088</v>
       </c>
       <c r="D17">
-        <v>1.006807850604202</v>
+        <v>1.017955656199772</v>
       </c>
       <c r="E17">
-        <v>0.9948419910187212</v>
+        <v>1.004567757998389</v>
       </c>
       <c r="F17">
-        <v>0.9532633203004311</v>
+        <v>1.015908990156621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038084093245274</v>
+        <v>1.042314779579734</v>
       </c>
       <c r="J17">
-        <v>1.013376053672019</v>
+        <v>1.024209500575867</v>
       </c>
       <c r="K17">
-        <v>1.020697557257868</v>
+        <v>1.031656015622802</v>
       </c>
       <c r="L17">
-        <v>1.008941067309695</v>
+        <v>1.018496169089319</v>
       </c>
       <c r="M17">
-        <v>0.9681436340153144</v>
+        <v>1.029643710885412</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033174218531318</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033534063134066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9864547299327986</v>
+        <v>0.9971531459199182</v>
       </c>
       <c r="D18">
-        <v>1.007605986076971</v>
+        <v>1.018255239959214</v>
       </c>
       <c r="E18">
-        <v>0.9957175780368067</v>
+        <v>1.004936515422894</v>
       </c>
       <c r="F18">
-        <v>0.955077055561955</v>
+        <v>1.015527978925387</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038469838890904</v>
+        <v>1.042350719558748</v>
       </c>
       <c r="J18">
-        <v>1.014039411947224</v>
+        <v>1.024324137079189</v>
       </c>
       <c r="K18">
-        <v>1.02129470925078</v>
+        <v>1.031766132398271</v>
       </c>
       <c r="L18">
-        <v>1.009610643373293</v>
+        <v>1.018670578779532</v>
       </c>
       <c r="M18">
-        <v>0.9697190511396143</v>
+        <v>1.02908395619075</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032492311174682</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033600241403236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9868322439353326</v>
+        <v>0.9969769416619103</v>
       </c>
       <c r="D19">
-        <v>1.007877012068058</v>
+        <v>1.018093261812115</v>
       </c>
       <c r="E19">
-        <v>0.9960149715095341</v>
+        <v>1.004743790015317</v>
       </c>
       <c r="F19">
-        <v>0.9556922754304853</v>
+        <v>1.014148041085125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038600568095764</v>
+        <v>1.04219198460701</v>
       </c>
       <c r="J19">
-        <v>1.014264515068702</v>
+        <v>1.024019346706887</v>
       </c>
       <c r="K19">
-        <v>1.02149732770861</v>
+        <v>1.031543914102977</v>
       </c>
       <c r="L19">
-        <v>1.009837933205662</v>
+        <v>1.018417032052046</v>
       </c>
       <c r="M19">
-        <v>0.9702533816291121</v>
+        <v>1.027663690959637</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031040832508117</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033449544254986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9851373929786524</v>
+        <v>0.994800647492184</v>
       </c>
       <c r="D20">
-        <v>1.006660504869433</v>
+        <v>1.016611909290668</v>
       </c>
       <c r="E20">
-        <v>0.994680378559207</v>
+        <v>1.002965686274345</v>
       </c>
       <c r="F20">
-        <v>0.9529281530002732</v>
+        <v>1.010092485764728</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03801275589758</v>
+        <v>1.041479329713885</v>
       </c>
       <c r="J20">
-        <v>1.013253514745201</v>
+        <v>1.022533477276031</v>
       </c>
       <c r="K20">
-        <v>1.020587239731486</v>
+        <v>1.030368814940382</v>
       </c>
       <c r="L20">
-        <v>1.008817416522132</v>
+        <v>1.016956587350023</v>
       </c>
       <c r="M20">
-        <v>0.9678524821979638</v>
+        <v>1.023960162434091</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.027576569596051</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032622636481636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.979508683989846</v>
+        <v>0.9903588145570669</v>
       </c>
       <c r="D21">
-        <v>1.00262542013831</v>
+        <v>1.013764405119754</v>
       </c>
       <c r="E21">
-        <v>0.990258260658115</v>
+        <v>0.9995414550261268</v>
       </c>
       <c r="F21">
-        <v>0.9437078715334019</v>
+        <v>1.00627355532553</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036044669878026</v>
+        <v>1.040423802687472</v>
       </c>
       <c r="J21">
-        <v>1.009888843937267</v>
+        <v>1.020265234422244</v>
       </c>
       <c r="K21">
-        <v>1.017557223259457</v>
+        <v>1.028489616059505</v>
       </c>
       <c r="L21">
-        <v>1.005426573895226</v>
+        <v>1.014531519893302</v>
       </c>
       <c r="M21">
-        <v>0.9598404057597196</v>
+        <v>1.021137040111573</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02530077610925</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031297202273696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9758734910559514</v>
+        <v>0.9875471620576848</v>
       </c>
       <c r="D22">
-        <v>1.000023676195329</v>
+        <v>1.011965673492255</v>
       </c>
       <c r="E22">
-        <v>0.9874104667546909</v>
+        <v>0.9973852791388529</v>
       </c>
       <c r="F22">
-        <v>0.9377176243098431</v>
+        <v>1.003988709102452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034761508149681</v>
+        <v>1.039754327415393</v>
       </c>
       <c r="J22">
-        <v>1.007710398477082</v>
+        <v>1.018843822832068</v>
       </c>
       <c r="K22">
-        <v>1.015594664070264</v>
+        <v>1.02730375738788</v>
       </c>
       <c r="L22">
-        <v>1.003235519447205</v>
+        <v>1.013008712728434</v>
       </c>
       <c r="M22">
-        <v>0.9546328250159749</v>
+        <v>1.019481560859292</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.023990545603799</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030445170263473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9778100535944465</v>
+        <v>0.9890337909983361</v>
       </c>
       <c r="D23">
-        <v>1.00140927059224</v>
+        <v>1.012909927629347</v>
       </c>
       <c r="E23">
-        <v>0.9889267745451946</v>
+        <v>0.9985232631457909</v>
       </c>
       <c r="F23">
-        <v>0.940912418005119</v>
+        <v>1.00519945422407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035446209723996</v>
+        <v>1.040104814168037</v>
       </c>
       <c r="J23">
-        <v>1.008871424012047</v>
+        <v>1.019591417647361</v>
       </c>
       <c r="K23">
-        <v>1.016640695642406</v>
+        <v>1.027922910851936</v>
       </c>
       <c r="L23">
-        <v>1.004402851441636</v>
+        <v>1.013810540092081</v>
       </c>
       <c r="M23">
-        <v>0.9574103880903223</v>
+        <v>1.020358166556673</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024684336265927</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03087326030965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9852302053184482</v>
+        <v>0.9947866104855827</v>
       </c>
       <c r="D24">
-        <v>1.006727104711312</v>
+        <v>1.016585617496842</v>
       </c>
       <c r="E24">
-        <v>0.9947534257026888</v>
+        <v>1.00294450598845</v>
       </c>
       <c r="F24">
-        <v>0.9530796604495346</v>
+        <v>1.009896429059731</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038045004923661</v>
+        <v>1.041451871336854</v>
       </c>
       <c r="J24">
-        <v>1.013308904859574</v>
+        <v>1.02248683312432</v>
       </c>
       <c r="K24">
-        <v>1.020637105845201</v>
+        <v>1.030327599669275</v>
       </c>
       <c r="L24">
-        <v>1.008873307809026</v>
+        <v>1.016920109367971</v>
       </c>
       <c r="M24">
-        <v>0.9679840940142292</v>
+        <v>1.023751952995267</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.027370346077025</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032565969990016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.993455389053435</v>
+        <v>1.001237628591575</v>
       </c>
       <c r="D25">
-        <v>1.012637263624669</v>
+        <v>1.020728807909512</v>
       </c>
       <c r="E25">
-        <v>1.001244215752948</v>
+        <v>1.007932023368776</v>
       </c>
       <c r="F25">
-        <v>0.9664448207936643</v>
+        <v>1.015197889839464</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040874247763243</v>
+        <v>1.042927977110652</v>
       </c>
       <c r="J25">
-        <v>1.018205030827136</v>
+        <v>1.025723413263671</v>
       </c>
       <c r="K25">
-        <v>1.025042519427554</v>
+        <v>1.033013637657191</v>
       </c>
       <c r="L25">
-        <v>1.013823247531178</v>
+        <v>1.020408440262629</v>
       </c>
       <c r="M25">
-        <v>0.9795873748161915</v>
+        <v>1.027564771857267</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030387986270821</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034462278183082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00618916824188</v>
+        <v>1.005723915625248</v>
       </c>
       <c r="D2">
-        <v>1.023905871593549</v>
+        <v>1.023174308738229</v>
       </c>
       <c r="E2">
-        <v>1.011778993742125</v>
+        <v>1.01138622126321</v>
       </c>
       <c r="F2">
-        <v>1.019303428911521</v>
+        <v>1.019101881606576</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044019805076717</v>
+        <v>1.043695367444061</v>
       </c>
       <c r="J2">
-        <v>1.028186325164798</v>
+        <v>1.027734762877844</v>
       </c>
       <c r="K2">
-        <v>1.035041910662016</v>
+        <v>1.034319960254079</v>
       </c>
       <c r="L2">
-        <v>1.023076631754424</v>
+        <v>1.022689174721955</v>
       </c>
       <c r="M2">
-        <v>1.030500230460246</v>
+        <v>1.030301359770159</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032711234266814</v>
+        <v>1.032553839706617</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035847911202092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035346232574261</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021200405563523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009708287755285</v>
+        <v>1.00914660223117</v>
       </c>
       <c r="D3">
-        <v>1.026182446886433</v>
+        <v>1.025306664807855</v>
       </c>
       <c r="E3">
-        <v>1.01452731012559</v>
+        <v>1.014049180767279</v>
       </c>
       <c r="F3">
-        <v>1.022230168483846</v>
+        <v>1.021987178272087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044785638456933</v>
+        <v>1.044391836321748</v>
       </c>
       <c r="J3">
-        <v>1.029937748900006</v>
+        <v>1.02939098967915</v>
       </c>
       <c r="K3">
-        <v>1.036490929965512</v>
+        <v>1.035625666275038</v>
       </c>
       <c r="L3">
-        <v>1.024977625327928</v>
+        <v>1.02450540100578</v>
       </c>
       <c r="M3">
-        <v>1.032586296950724</v>
+        <v>1.032346250962314</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03436223218235</v>
+        <v>1.034172250215522</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036869826000884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036266535092072</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021452347021552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01194554909232</v>
+        <v>1.011323222800101</v>
       </c>
       <c r="D4">
-        <v>1.027633673689543</v>
+        <v>1.026666670937318</v>
       </c>
       <c r="E4">
-        <v>1.01628005355392</v>
+        <v>1.015748200599009</v>
       </c>
       <c r="F4">
-        <v>1.024097271932754</v>
+        <v>1.023828281824822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045264562830189</v>
+        <v>1.044826875847489</v>
       </c>
       <c r="J4">
-        <v>1.031048545012637</v>
+        <v>1.030441648424443</v>
       </c>
       <c r="K4">
-        <v>1.037409643126459</v>
+        <v>1.036453562925333</v>
       </c>
       <c r="L4">
-        <v>1.026185884496108</v>
+        <v>1.025660202790893</v>
       </c>
       <c r="M4">
-        <v>1.033913309547696</v>
+        <v>1.033647381125111</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035412481941839</v>
+        <v>1.03520201589465</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037520337920047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036852914115767</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021609664191033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012879776512113</v>
+        <v>1.012232296110116</v>
       </c>
       <c r="D5">
-        <v>1.028242753530571</v>
+        <v>1.027237819247942</v>
       </c>
       <c r="E5">
-        <v>1.017013619237116</v>
+        <v>1.016459468236443</v>
       </c>
       <c r="F5">
-        <v>1.024877263003085</v>
+        <v>1.024597501740758</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045464092829396</v>
+        <v>1.045008142918293</v>
       </c>
       <c r="J5">
-        <v>1.03151314325223</v>
+        <v>1.030881241114196</v>
       </c>
       <c r="K5">
-        <v>1.037795492305069</v>
+        <v>1.036801610529281</v>
       </c>
       <c r="L5">
-        <v>1.026691388040035</v>
+        <v>1.026143495326349</v>
       </c>
       <c r="M5">
-        <v>1.034467121059344</v>
+        <v>1.034190458888795</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035850789608184</v>
+        <v>1.035631828591652</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037800359118314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03710691884528</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021675680937641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013039703887871</v>
+        <v>1.012387944564112</v>
       </c>
       <c r="D6">
-        <v>1.028349714694062</v>
+        <v>1.027338354704706</v>
       </c>
       <c r="E6">
-        <v>1.017139713694726</v>
+        <v>1.016581763968369</v>
       </c>
       <c r="F6">
-        <v>1.025009423818422</v>
+        <v>1.024727830798547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04549993904215</v>
+        <v>1.045040879701422</v>
       </c>
       <c r="J6">
-        <v>1.031594362955077</v>
+        <v>1.030958204962579</v>
       </c>
       <c r="K6">
-        <v>1.037864956980827</v>
+        <v>1.036864669816373</v>
       </c>
       <c r="L6">
-        <v>1.026779203166916</v>
+        <v>1.026227525691539</v>
       </c>
       <c r="M6">
-        <v>1.034561339220485</v>
+        <v>1.034282851244454</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035925357446732</v>
+        <v>1.035704951440928</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037858246898212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037161148076476</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021688180791321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011967761510573</v>
+        <v>1.011344876914158</v>
       </c>
       <c r="D7">
-        <v>1.027655221882924</v>
+        <v>1.026687474148298</v>
       </c>
       <c r="E7">
-        <v>1.016298685116712</v>
+        <v>1.015766322434388</v>
       </c>
       <c r="F7">
-        <v>1.024111908085504</v>
+        <v>1.023842677977042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04527415705037</v>
+        <v>1.044836066920577</v>
       </c>
       <c r="J7">
-        <v>1.031064226606114</v>
+        <v>1.030456779018575</v>
       </c>
       <c r="K7">
-        <v>1.037428054828345</v>
+        <v>1.036471233856896</v>
       </c>
       <c r="L7">
-        <v>1.02620136322524</v>
+        <v>1.025675175363572</v>
       </c>
       <c r="M7">
-        <v>1.033924872378621</v>
+        <v>1.033658705556673</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035421633212386</v>
+        <v>1.035210978489412</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037553528599228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03688758416366</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02161456373588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007399010198201</v>
+        <v>1.006900472834898</v>
       </c>
       <c r="D8">
-        <v>1.024696447231945</v>
+        <v>1.023915365365178</v>
       </c>
       <c r="E8">
-        <v>1.012724234754349</v>
+        <v>1.0123019895792</v>
       </c>
       <c r="F8">
-        <v>1.020303418230015</v>
+        <v>1.020087552186011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044290708306734</v>
+        <v>1.043942389303552</v>
       </c>
       <c r="J8">
-        <v>1.02879473853093</v>
+        <v>1.028310383222395</v>
       </c>
       <c r="K8">
-        <v>1.035551966252092</v>
+        <v>1.034780846397096</v>
       </c>
       <c r="L8">
-        <v>1.02373456312624</v>
+        <v>1.023317861671669</v>
       </c>
       <c r="M8">
-        <v>1.031215214517409</v>
+        <v>1.031002129470109</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033277102183863</v>
+        <v>1.033108457923174</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036231550422741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035697377047947</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021291732545717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9990152315837888</v>
+        <v>0.998750552563422</v>
       </c>
       <c r="D9">
-        <v>1.01928832340146</v>
+        <v>1.018853453659736</v>
       </c>
       <c r="E9">
-        <v>1.006208097531877</v>
+        <v>1.005992467577446</v>
       </c>
       <c r="F9">
-        <v>1.013373132262064</v>
+        <v>1.013258155368243</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042416747807169</v>
+        <v>1.042234905033423</v>
       </c>
       <c r="J9">
-        <v>1.024602812551898</v>
+        <v>1.024347509321316</v>
       </c>
       <c r="K9">
-        <v>1.03207602464427</v>
+        <v>1.031647877103687</v>
       </c>
       <c r="L9">
-        <v>1.019201249319512</v>
+        <v>1.018989063636238</v>
       </c>
       <c r="M9">
-        <v>1.02625290283208</v>
+        <v>1.026139729165442</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029349714280055</v>
+        <v>1.029260143490925</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033770626171935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033478679111445</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02067184852414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9932899479685501</v>
+        <v>0.9931868688668029</v>
       </c>
       <c r="D10">
-        <v>1.015630756488735</v>
+        <v>1.015432280898728</v>
       </c>
       <c r="E10">
-        <v>1.001801329393593</v>
+        <v>1.001727764882844</v>
       </c>
       <c r="F10">
-        <v>1.008917110775979</v>
+        <v>1.008872278542968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041122027101642</v>
+        <v>1.041053396312859</v>
       </c>
       <c r="J10">
-        <v>1.021772343491834</v>
+        <v>1.021673433514883</v>
       </c>
       <c r="K10">
-        <v>1.029723413597669</v>
+        <v>1.029528381095086</v>
       </c>
       <c r="L10">
-        <v>1.016138136269849</v>
+        <v>1.016065893915921</v>
       </c>
       <c r="M10">
-        <v>1.023127209123771</v>
+        <v>1.023083167949467</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.026928063343834</v>
+        <v>1.026893209268697</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032124053532994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031998618776402</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020246072864716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9915002440637252</v>
+        <v>0.9914280450331819</v>
       </c>
       <c r="D11">
-        <v>1.014577518538084</v>
+        <v>1.014429705818322</v>
       </c>
       <c r="E11">
-        <v>1.000519422984907</v>
+        <v>1.000471206584635</v>
       </c>
       <c r="F11">
-        <v>1.009440070370424</v>
+        <v>1.009408900782661</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040896525021368</v>
+        <v>1.040849213373506</v>
       </c>
       <c r="J11">
-        <v>1.021230948286108</v>
+        <v>1.021161827055594</v>
       </c>
       <c r="K11">
-        <v>1.029229662616708</v>
+        <v>1.029084534705315</v>
       </c>
       <c r="L11">
-        <v>1.015431550392709</v>
+        <v>1.015384242107329</v>
       </c>
       <c r="M11">
-        <v>1.024186129883416</v>
+        <v>1.024155533894654</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P11">
-        <v>1.028207531933806</v>
+        <v>1.028183330854407</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031807935364355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031721008982849</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020199466374349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9910796962351057</v>
+        <v>0.991003974938651</v>
       </c>
       <c r="D12">
-        <v>1.014367423074269</v>
+        <v>1.01421913675073</v>
       </c>
       <c r="E12">
-        <v>1.000263220383414</v>
+        <v>1.000210486707997</v>
       </c>
       <c r="F12">
-        <v>1.01046269970535</v>
+        <v>1.010430188282075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040930049953513</v>
+        <v>1.040880169978314</v>
       </c>
       <c r="J12">
-        <v>1.021266436793319</v>
+        <v>1.021194003494365</v>
       </c>
       <c r="K12">
-        <v>1.029224447071992</v>
+        <v>1.029078898283366</v>
       </c>
       <c r="L12">
-        <v>1.015385379243059</v>
+        <v>1.01533365523548</v>
       </c>
       <c r="M12">
-        <v>1.025392159041351</v>
+        <v>1.025360253794205</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029491052461863</v>
+        <v>1.029465824487926</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031804247776505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03171702390197</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020229357674962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9916923278463133</v>
+        <v>0.9915861806786875</v>
       </c>
       <c r="D13">
-        <v>1.014803858963999</v>
+        <v>1.01461551316287</v>
       </c>
       <c r="E13">
-        <v>1.000784362563844</v>
+        <v>1.000703699386895</v>
       </c>
       <c r="F13">
-        <v>1.011963537828152</v>
+        <v>1.011918163908879</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041175305348627</v>
+        <v>1.041104202784089</v>
       </c>
       <c r="J13">
-        <v>1.021758568775608</v>
+        <v>1.021657005971976</v>
       </c>
       <c r="K13">
-        <v>1.029609731135307</v>
+        <v>1.029424847070747</v>
       </c>
       <c r="L13">
-        <v>1.015852567377357</v>
+        <v>1.01577344139079</v>
       </c>
       <c r="M13">
-        <v>1.026821792577716</v>
+        <v>1.026777258577565</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030900281555551</v>
+        <v>1.030865076801776</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032074155566721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031958871802044</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020325764271139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9925814904874161</v>
+        <v>0.9924424245523769</v>
       </c>
       <c r="D14">
-        <v>1.015398192356112</v>
+        <v>1.015164548593986</v>
       </c>
       <c r="E14">
-        <v>1.001494733354342</v>
+        <v>1.00138441778033</v>
       </c>
       <c r="F14">
-        <v>1.013205115836488</v>
+        <v>1.013145820489089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041439694948258</v>
+        <v>1.041345633418977</v>
       </c>
       <c r="J14">
-        <v>1.022302278484712</v>
+        <v>1.022169131483381</v>
       </c>
       <c r="K14">
-        <v>1.030052044557124</v>
+        <v>1.029822641684933</v>
       </c>
       <c r="L14">
-        <v>1.016405448073706</v>
+        <v>1.016297207805483</v>
       </c>
       <c r="M14">
-        <v>1.027898874980812</v>
+        <v>1.027840661740546</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031926105928188</v>
+        <v>1.031880093804586</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032388318227847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032241691222755</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020422431542624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9930339746362308</v>
+        <v>0.9928805890703636</v>
       </c>
       <c r="D15">
-        <v>1.015693993724381</v>
+        <v>1.015440028280626</v>
       </c>
       <c r="E15">
-        <v>1.00184725450253</v>
+        <v>1.001724220454321</v>
       </c>
       <c r="F15">
-        <v>1.013659851422804</v>
+        <v>1.013594485153863</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041556535799255</v>
+        <v>1.041452486076584</v>
       </c>
       <c r="J15">
-        <v>1.022546585262674</v>
+        <v>1.022399670951086</v>
       </c>
       <c r="K15">
-        <v>1.030255573028374</v>
+        <v>1.030006182484308</v>
       </c>
       <c r="L15">
-        <v>1.016662683803111</v>
+        <v>1.016541946370404</v>
       </c>
       <c r="M15">
-        <v>1.028258157182333</v>
+        <v>1.028193974281053</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032247823380317</v>
+        <v>1.032197094138755</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032538114000744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032377925208573</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020463362849175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9953223091417849</v>
+        <v>0.9951070834978717</v>
       </c>
       <c r="D16">
-        <v>1.017145902783433</v>
+        <v>1.016800470292336</v>
       </c>
       <c r="E16">
-        <v>1.003592314684638</v>
+        <v>1.003415349531264</v>
       </c>
       <c r="F16">
-        <v>1.015297601340304</v>
+        <v>1.015205858430352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042063263918636</v>
+        <v>1.041916027767375</v>
       </c>
       <c r="J16">
-        <v>1.023645370128487</v>
+        <v>1.023438772782122</v>
       </c>
       <c r="K16">
-        <v>1.031176543389328</v>
+        <v>1.030837063918431</v>
       </c>
       <c r="L16">
-        <v>1.017860522275956</v>
+        <v>1.017686714070694</v>
       </c>
       <c r="M16">
-        <v>1.029360155699586</v>
+        <v>1.029270000787956</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033079903701574</v>
+        <v>1.033008644505605</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033192457182165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032968870178427</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02062832078755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9966208441792088</v>
+        <v>0.9963751270342076</v>
       </c>
       <c r="D17">
-        <v>1.017955656199772</v>
+        <v>1.017563366252928</v>
       </c>
       <c r="E17">
-        <v>1.004567757998389</v>
+        <v>1.004364647834393</v>
       </c>
       <c r="F17">
-        <v>1.015908990156621</v>
+        <v>1.015804092349062</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042314779579734</v>
+        <v>1.042146190633952</v>
       </c>
       <c r="J17">
-        <v>1.024209500575867</v>
+        <v>1.023973319999343</v>
       </c>
       <c r="K17">
-        <v>1.031656015622802</v>
+        <v>1.031270297996429</v>
       </c>
       <c r="L17">
-        <v>1.018496169089319</v>
+        <v>1.018296579320212</v>
       </c>
       <c r="M17">
-        <v>1.029643710885412</v>
+        <v>1.029540579009199</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033174218531318</v>
+        <v>1.033092694047144</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033534063134066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033278031200268</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020704675833936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9971531459199182</v>
+        <v>0.9969026449075936</v>
       </c>
       <c r="D18">
-        <v>1.018255239959214</v>
+        <v>1.017852497329684</v>
       </c>
       <c r="E18">
-        <v>1.004936515422894</v>
+        <v>1.004730200611127</v>
       </c>
       <c r="F18">
-        <v>1.015527978925387</v>
+        <v>1.01542069222755</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042350719558748</v>
+        <v>1.042178814634392</v>
       </c>
       <c r="J18">
-        <v>1.024324137079189</v>
+        <v>1.024083179442852</v>
       </c>
       <c r="K18">
-        <v>1.031766132398271</v>
+        <v>1.031370028014378</v>
       </c>
       <c r="L18">
-        <v>1.018670578779532</v>
+        <v>1.018467781119079</v>
       </c>
       <c r="M18">
-        <v>1.02908395619075</v>
+        <v>1.028978449442377</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032492311174682</v>
+        <v>1.032408891791673</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033600241403236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033335728016807</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020703175496655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9969769416619103</v>
+        <v>0.9967452368865138</v>
       </c>
       <c r="D19">
-        <v>1.018093261812115</v>
+        <v>1.01771394353927</v>
       </c>
       <c r="E19">
-        <v>1.004743790015317</v>
+        <v>1.004555220825587</v>
       </c>
       <c r="F19">
-        <v>1.014148041085125</v>
+        <v>1.014048297809766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04219198460701</v>
+        <v>1.042033331104296</v>
       </c>
       <c r="J19">
-        <v>1.024019346706887</v>
+        <v>1.023796421697111</v>
       </c>
       <c r="K19">
-        <v>1.031543914102977</v>
+        <v>1.03117081694924</v>
       </c>
       <c r="L19">
-        <v>1.018417032052046</v>
+        <v>1.0182316617699</v>
       </c>
       <c r="M19">
-        <v>1.027663690959637</v>
+        <v>1.027565599394239</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031040832508117</v>
+        <v>1.030963250192996</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033449544254986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033201925476912</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020633819600575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.994800647492184</v>
+        <v>0.9946542951276348</v>
       </c>
       <c r="D20">
-        <v>1.016611909290668</v>
+        <v>1.016350841328345</v>
       </c>
       <c r="E20">
-        <v>1.002965686274345</v>
+        <v>1.002854052604313</v>
       </c>
       <c r="F20">
-        <v>1.010092485764728</v>
+        <v>1.010028855280884</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041479329713885</v>
+        <v>1.041380527742331</v>
       </c>
       <c r="J20">
-        <v>1.022533477276031</v>
+        <v>1.022392851460412</v>
       </c>
       <c r="K20">
-        <v>1.030368814940382</v>
+        <v>1.030112147530514</v>
       </c>
       <c r="L20">
-        <v>1.016956587350023</v>
+        <v>1.016846901900077</v>
       </c>
       <c r="M20">
-        <v>1.023960162434091</v>
+        <v>1.023897622196973</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027576569596051</v>
+        <v>1.027527074802563</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032622636481636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032457733912146</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020368167945411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9903588145570669</v>
+        <v>0.9903433044651035</v>
       </c>
       <c r="D21">
-        <v>1.013764405119754</v>
+        <v>1.01369218127641</v>
       </c>
       <c r="E21">
-        <v>0.9995414550261268</v>
+        <v>0.9995448982149442</v>
       </c>
       <c r="F21">
-        <v>1.00627355532553</v>
+        <v>1.00626679535057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040423802687472</v>
+        <v>1.040415909679892</v>
       </c>
       <c r="J21">
-        <v>1.020265234422244</v>
+        <v>1.020250390969335</v>
       </c>
       <c r="K21">
-        <v>1.028489616059505</v>
+        <v>1.028418712695677</v>
       </c>
       <c r="L21">
-        <v>1.014531519893302</v>
+        <v>1.014534897771871</v>
       </c>
       <c r="M21">
-        <v>1.021137040111573</v>
+        <v>1.021130406132383</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P21">
-        <v>1.02530077610925</v>
+        <v>1.025295525645639</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031297202273696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031263977738337</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020014573911668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9875471620576848</v>
+        <v>0.9876145620180548</v>
       </c>
       <c r="D22">
-        <v>1.011965673492255</v>
+        <v>1.012012268210405</v>
       </c>
       <c r="E22">
-        <v>0.9973852791388529</v>
+        <v>0.9974614038967728</v>
       </c>
       <c r="F22">
-        <v>1.003988709102452</v>
+        <v>1.004018116079148</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039754327415393</v>
+        <v>1.039803533572079</v>
       </c>
       <c r="J22">
-        <v>1.018843822832068</v>
+        <v>1.018908156739646</v>
       </c>
       <c r="K22">
-        <v>1.02730375738788</v>
+        <v>1.027349457465987</v>
       </c>
       <c r="L22">
-        <v>1.013008712728434</v>
+        <v>1.013083319176908</v>
       </c>
       <c r="M22">
-        <v>1.019481560859292</v>
+        <v>1.019510391358994</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.023990545603799</v>
+        <v>1.02401336354968</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030445170263473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03049308839009</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019789883923249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9890337909983361</v>
+        <v>0.9890573387818049</v>
       </c>
       <c r="D23">
-        <v>1.012909927629347</v>
+        <v>1.012893615212074</v>
       </c>
       <c r="E23">
-        <v>0.9985232631457909</v>
+        <v>0.998560991542579</v>
       </c>
       <c r="F23">
-        <v>1.00519945422407</v>
+        <v>1.005209722470638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040104814168037</v>
+        <v>1.040123871669347</v>
       </c>
       <c r="J23">
-        <v>1.019591417647361</v>
+        <v>1.019613925740187</v>
       </c>
       <c r="K23">
-        <v>1.027922910851936</v>
+        <v>1.027906903684619</v>
       </c>
       <c r="L23">
-        <v>1.013810540092081</v>
+        <v>1.013847535613982</v>
       </c>
       <c r="M23">
-        <v>1.020358166556673</v>
+        <v>1.020368238786675</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024684336265927</v>
+        <v>1.024692307940689</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03087326030965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030876600653472</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019906011092904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9947866104855827</v>
+        <v>0.9946426467805359</v>
       </c>
       <c r="D24">
-        <v>1.016585617496842</v>
+        <v>1.016327303738803</v>
       </c>
       <c r="E24">
-        <v>1.00294450598845</v>
+        <v>1.002835155181519</v>
       </c>
       <c r="F24">
-        <v>1.009896429059731</v>
+        <v>1.009833789340045</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041451871336854</v>
+        <v>1.041354746175426</v>
       </c>
       <c r="J24">
-        <v>1.02248683312432</v>
+        <v>1.02234849478539</v>
       </c>
       <c r="K24">
-        <v>1.030327599669275</v>
+        <v>1.030073634726509</v>
       </c>
       <c r="L24">
-        <v>1.016920109367971</v>
+        <v>1.016812664580766</v>
       </c>
       <c r="M24">
-        <v>1.023751952995267</v>
+        <v>1.023690385703185</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027370346077025</v>
+        <v>1.027321618782303</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032565969990016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032400298944983</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020354182159702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001237628591575</v>
+        <v>1.000910175700656</v>
       </c>
       <c r="D25">
-        <v>1.020728807909512</v>
+        <v>1.02020181849412</v>
       </c>
       <c r="E25">
-        <v>1.007932023368776</v>
+        <v>1.007660974527862</v>
       </c>
       <c r="F25">
-        <v>1.015197889839464</v>
+        <v>1.015055764568384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042927977110652</v>
+        <v>1.04270175153961</v>
       </c>
       <c r="J25">
-        <v>1.025723413263671</v>
+        <v>1.02540694757991</v>
       </c>
       <c r="K25">
-        <v>1.033013637657191</v>
+        <v>1.032494417523955</v>
       </c>
       <c r="L25">
-        <v>1.020408440262629</v>
+        <v>1.020141516516424</v>
       </c>
       <c r="M25">
-        <v>1.027564771857267</v>
+        <v>1.027424770032998</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030387986270821</v>
+        <v>1.03027718262136</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034462278183082</v>
+        <v>1.034108746831636</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020843865944128</v>
       </c>
     </row>
   </sheetData>
